--- a/data_excel/接口测试用例_ (7).xlsx
+++ b/data_excel/接口测试用例_ (7).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 09:42:56', 'context': '查无结果', 'ftime': '2019-09-29 09:42:56'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-08-25 14:44:58', 'ftime': '2018-08-25 14:44:58', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-08-25 14:44:43', 'ftime': '2018-08-25 14:44:43', 'context': ' 上门取件失败，准备再次取件，原因：无法联系客户，备注：再投无备注下次再投时间:2018-08-26 10:00:00', 'location': None}, {'time': '2018-08-25 09:41:12', 'ftime': '2018-08-25 09:41:12', 'context': ' 配送员：袁叶松已出发，手机号：18685135757或18586879410，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-08-24 21:06:55', 'ftime': '2018-08-24 21:06:55', 'context': ' 上门取件失败，准备再次取件，原因：无法联系客户，备注：再投无备注下次再投时间:2018-08-25 18:00:00', 'location': None}, {'time': '2018-08-24 08:37:56', 'ftime': '2018-08-24 08:37:56', 'context': ' 配送员：袁叶松已出发，手机号：18685135757或18586879410，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-08-24 07:04:52', 'ftime': '2018-08-24 07:04:52', 'context': ' 取件任务分配给如意站', 'location': None}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.067186</v>
+        <v>0.07057099999999999</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.011</v>
+        <v>0.00893</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:35:20', 'ftime': '2019-09-29 08:35:20', 'context': '[广西南宁分拨中心]在分拨中心进行卸车扫描', 'location': '广西南宁分拨中心'}, {'time': '2019-09-28 03:02:03', 'ftime': '2019-09-28 03:02:03', 'context': '[浙江杭州分拨中心]进行装车扫描，发往：广西南宁分拨中心', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-28 03:00:13', 'ftime': '2019-09-28 03:00:13', 'context': '[浙江杭州分拨中心]在分拨中心进行卸车扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-09-27 21:28:27', 'ftime': '2019-09-27 21:28:27', 'context': '[浙江嘉兴分拨中心]进行装车扫描，发往：浙江杭州分拨中心', 'location': '浙江嘉兴分拨中心'}, {'time': '2019-09-27 21:26:15', 'ftime': '2019-09-27 21:26:15', 'context': '[浙江嘉兴分拨中心]在分拨中心进行称重扫描', 'location': '浙江嘉兴分拨中心'}, {'time': '2019-09-27 19:48:13', 'ftime': '2019-09-27 19:48:13', 'context': '[浙江海盐县公司]进行下级地点扫描，发往：广西南宁分拨中心', 'location': '浙江海盐县公司'}, {'time': '2019-09-27 19:30:50', 'ftime': '2019-09-27 19:30:50', 'context': '[浙江海盐县公司]进行揽件扫描', 'location': '浙江海盐县公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:07:14', 'context': '查无结果', 'ftime': '2019-09-27 10:07:14'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.074763</v>
+        <v>0.06592199999999999</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011428</v>
+        <v>0.009157999999999999</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-11 09:42:57', 'context': '查无结果', 'ftime': '2019-09-11 09:42:57'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 17:49:53', 'ftime': '2019-09-22 17:49:53', 'context': '[黑龙江哈尔滨香坊区幸福镇公司]快件已被 拍照 签收', 'location': '黑龙江哈尔滨香坊区幸福镇公司'}, {'time': '2019-09-22 17:21:01', 'ftime': '2019-09-22 17:21:01', 'context': '[黑龙江哈尔滨香坊区幸福镇公司]进行派件扫描；派送业务员：张平；联系电话：15561898541', 'location': '黑龙江哈尔滨香坊区幸福镇公司'}, {'time': '2019-09-22 12:07:01', 'ftime': '2019-09-22 12:07:01', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江哈尔滨香坊区幸福镇公司', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-22 11:05:26', 'ftime': '2019-09-22 11:05:26', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-20 04:55:44', 'ftime': '2019-09-20 04:55:44', 'context': '[广东广州分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 23:03:08', 'ftime': '2019-09-19 23:03:08', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 06:35:56', 'ftime': '2019-09-19 06:35:56', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：黑龙江哈尔滨网点包', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-19 00:08:01', 'ftime': '2019-09-19 00:08:01', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.067778</v>
+        <v>0.07562000000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.011648</v>
+        <v>0.010112</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-02 21:42:05', 'ftime': '2018-11-02 21:42:05', 'context': '订单已由公司前台代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-02 18:16:10', 'ftime': '2018-11-02 18:16:10', 'context': '配送员开始配送，请您准备收货，配送员，闫永强，手机号，17744598501', 'location': None}, {'time': '2018-11-02 17:30:52', 'ftime': '2018-11-02 17:30:52', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-02 17:30:51', 'ftime': '2018-11-02 17:30:51', 'context': '货物已到达【北京林校路营业部】', 'location': None}, {'time': '2018-11-02 14:22:39', 'ftime': '2018-11-02 14:22:39', 'context': '货物已完成分拣，离开【北京亚一分拣中心】', 'location': None}, {'time': '2018-11-02 12:53:31', 'ftime': '2018-11-02 12:53:31', 'context': '货物已交付京东物流', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-03 14:24:17', 'ftime': '2018-11-03 14:24:17', 'context': '订单已由亲属代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-03 10:01:29', 'ftime': '2018-11-03 10:01:29', 'context': '配送员开始配送，请您准备收货，配送员，朱延胜，手机号，18915170885', 'location': None}, {'time': '2018-11-03 09:12:24', 'ftime': '2018-11-03 09:12:24', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-03 09:12:23', 'ftime': '2018-11-03 09:12:23', 'context': '货物已到达【淮安淮水站】', 'location': None}, {'time': '2018-11-02 23:49:55', 'ftime': '2018-11-02 23:49:55', 'context': '货物已完成分拣，离开【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 23:47:27', 'ftime': '2018-11-02 23:47:27', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 23:47:12', 'ftime': '2018-11-02 23:47:12', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 23:47:09', 'ftime': '2018-11-02 23:47:09', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 14:04:13', 'ftime': '2018-11-02 14:04:13', 'context': '货物已完成分拣，离开【昆山千灯亚一分拣中心】', 'location': None}, {'time': '2018-11-02 14:03:13', 'ftime': '2018-11-02 14:03:13', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-02 14:03:13', 'ftime': '2018-11-02 14:03:13', 'context': '货物已到达【昆山千灯亚一分拣中心】', 'location': None}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.07399</v>
+        <v>0.073739</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010568</v>
+        <v>0.007262</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 06:19:52', 'ftime': '2019-09-28 06:19:52', 'context': '[日照市]离开【日照邮件处理中心】,下一站【莒县邮件分拣投递部】（经转）', 'location': '日照市'}, {'time': '2019-09-28 04:33:45', 'ftime': '2019-09-28 04:33:45', 'context': '[日照市]到达【日照邮件处理中心】（经转）', 'location': '日照市'}, {'time': '2019-09-28 01:58:02', 'ftime': '2019-09-28 01:58:02', 'context': '[青岛市]离开【青岛集散】,下一站【日照邮件处理中心】（经转）', 'location': '青岛市'}, {'time': '2019-09-27 18:28:21', 'ftime': '2019-09-27 18:28:21', 'context': '[青岛市]到达【青岛集散】（经转）', 'location': '青岛市'}, {'time': '2019-09-27 09:57:36', 'ftime': '2019-09-27 09:57:36', 'context': '[青岛市]进口海关放行', 'location': '青岛市'}, {'time': '2019-09-23 11:28:06', 'ftime': '2019-09-23 11:28:06', 'context': '[青岛市]进口海关留存待验', 'location': '青岛市'}, {'time': '2019-09-23 10:26:06', 'ftime': '2019-09-23 10:26:06', 'context': '[青岛市]送交进口海关', 'location': '青岛市'}, {'time': '2019-09-21 06:20:00', 'ftime': '2019-09-21 06:20:00', 'context': '[东京]离开境外出口互换局', 'location': '东京'}, {'time': '2019-09-20 13:53:00', 'ftime': '2019-09-20 13:53:00', 'context': '[东京]到达境外出口互换局', 'location': '东京'}, {'time': '2019-09-19 19:50:00', 'ftime': '2019-09-19 19:50:00', 'context': '[日本]【日本】已收件', 'location': '日本'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 09:45:25', 'ftime': '2019-09-26 09:45:25', 'context': '已签收,签收人是（本人）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员业张聚航(15830059529)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-26 07:05:30', 'ftime': '2019-09-26 07:05:30', 'context': '北京新大红门公司-业张聚航(15830059529)-派件中', 'location': ''}, {'time': '2019-09-26 06:52:48', 'ftime': '2019-09-26 06:52:48', 'context': '已到达-北京新大红门公司', 'location': ''}, {'time': '2019-09-26 06:50:16', 'ftime': '2019-09-26 06:50:16', 'context': '已到达-北京新大红门公司', 'location': ''}, {'time': '2019-09-26 02:39:22', 'ftime': '2019-09-26 02:39:22', 'context': '北京房山集散中心-已发往-北京新大红门公司', 'location': ''}, {'time': '2019-09-26 02:28:05', 'ftime': '2019-09-26 02:28:05', 'context': '已到达-北京房山集散中心', 'location': ''}, {'time': '2019-09-25 03:15:45', 'ftime': '2019-09-25 03:15:45', 'context': '浙江杭州航空部-已装袋发往-北京转运中心', 'location': ''}, {'time': '2019-09-25 03:15:45', 'ftime': '2019-09-25 03:15:45', 'context': '浙江杭州航空部-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 03:00:43', 'ftime': '2019-09-25 03:00:43', 'context': '已到达-浙江杭州航空部', 'location': ''}, {'time': '2019-09-25 00:10:45', 'ftime': '2019-09-25 00:10:45', 'context': '浙江湖州公司-已装袋发往-浙江杭州航空部', 'location': ''}, {'time': '2019-09-25 00:10:45', 'ftime': '2019-09-25 00:10:45', 'context': '浙江湖州公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-24 23:41:12', 'ftime': '2019-09-24 23:41:12', 'context': '浙江湖州公司-已发往-浙江杭州航空部', 'location': ''}, {'time': '2019-09-24 23:41:12', 'ftime': '2019-09-24 23:41:12', 'context': '浙江湖州公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-24 23:40:50', 'ftime': '2019-09-24 23:40:50', 'context': '浙江湖州公司-自动化分拣(0572-2381999)-已收件', 'location': ''}, {'time': '2019-09-24 23:40:47', 'ftime': '2019-09-24 23:40:47', 'context': '浙江湖州织里公司-浙江湖州织里公司-已收件', 'location': ''}, {'time': '2019-09-24 23:37:58', 'ftime': '2019-09-24 23:37:58', 'context': '浙江湖州公司-自动化分拣(0572-2381999)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.067843</v>
+        <v>0.069814</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011094</v>
+        <v>0.008887000000000001</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 22:47:13', 'ftime': '2019-09-28 22:47:13', 'context': '【长沙转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-28 22:44:07', 'ftime': '2019-09-28 22:44:07', 'context': '【长沙转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 21:37:36', 'ftime': '2019-09-28 21:37:36', 'context': '【湖南省长沙市雨花区黎托】 已发出 下一站 【长沙转运中心】', 'location': ''}, {'time': '2019-09-28 20:58:35', 'ftime': '2019-09-28 20:58:35', 'context': '【湖南省长沙市雨花区黎托公司】 已打包', 'location': ''}, {'time': '2019-09-28 19:50:35', 'ftime': '2019-09-28 19:50:35', 'context': '【湖南省长沙市雨花区黎托公司】 已收件 取件人: 覃婵婵 (18968722867)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 21:39:47', 'ftime': '2019-09-27 21:39:47', 'context': '货物已完成分拣，离开【杭州富阳外单分拣中心】', 'location': ''}, {'time': '2019-09-27 21:13:23', 'ftime': '2019-09-27 21:13:23', 'context': '货物已到达【杭州富阳外单分拣中心】', 'location': ''}, {'time': '2019-09-27 17:43:28', 'ftime': '2019-09-27 17:43:28', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 17:43:28', 'ftime': '2019-09-27 17:43:28', 'context': '配送员李锋已经揽收完成', 'location': ''}, {'time': '2019-09-26 17:07:40', 'ftime': '2019-09-26 17:07:40', 'context': '揽收任务已分配给李锋,配送员电话13186984511', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.071811</v>
+        <v>0.073972</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010164</v>
+        <v>0.010546</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-12 09:42:57', 'context': '查无结果', 'ftime': '2019-09-12 09:42:57'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:07:14', 'context': '查无结果', 'ftime': '2019-09-03 10:07:14'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.063128</v>
+        <v>0.067687</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010176</v>
+        <v>0.011447</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:40:30', 'ftime': '2019-09-29 07:40:30', 'context': '【南通转运中心】 已发出 下一站 【江苏省南通市启东市】', 'location': ''}, {'time': '2019-09-29 07:37:29', 'ftime': '2019-09-29 07:37:29', 'context': '【南通转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-29 03:29:35', 'ftime': '2019-09-29 03:29:35', 'context': '【无锡转运中心】 已发出 下一站 【南通转运中心】', 'location': ''}, {'time': '2019-09-29 03:26:50', 'ftime': '2019-09-29 03:26:50', 'context': '【无锡转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 20:26:46', 'ftime': '2019-09-27 20:26:46', 'context': '【深圳转运中心】 已发出 下一站 【无锡转运中心】', 'location': ''}, {'time': '2019-09-27 04:01:45', 'ftime': '2019-09-27 04:01:45', 'context': '【深圳转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 01:19:10', 'ftime': '2019-09-27 01:19:10', 'context': '【广东省深圳市振兴路】 已发出 下一站 【深圳转运中心】', 'location': ''}, {'time': '2019-09-27 01:17:44', 'ftime': '2019-09-27 01:17:44', 'context': '【广东省深圳市振兴路公司】 已收件 取件人: 陈贵伟 (18902313203)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 10:07:14', 'context': '查无结果', 'ftime': '2019-09-28 10:07:14'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.070606</v>
+        <v>0.06701799999999999</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010361</v>
+        <v>0.014477</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 09:17:22', 'ftime': '2019-09-27 09:17:22', 'context': '【2019-09-27 09:17:22】快件已到达【青山内三环】', 'location': '武汉市'}, {'time': '2019-09-27 00:26:06', 'ftime': '2019-09-27 00:26:06', 'context': '【2019-09-27 00:26:06】快件在【武汉分拨中心】正发往【青山内三环】', 'location': '武汉市'}, {'time': '2019-09-26 15:31:26', 'ftime': '2019-09-26 15:31:26', 'context': '【2019-09-26 15:31:26】快件在【武汉分拨中心】留仓,查件电话【027-59603466】', 'location': '武汉市'}, {'time': '2019-09-26 13:33:47', 'ftime': '2019-09-26 13:33:47', 'context': '【2019-09-26 13:33:47】快件已到达【武汉分拨中心】', 'location': '武汉市'}, {'time': '2019-09-25 21:51:42', 'ftime': '2019-09-25 21:51:42', 'context': '【2019-09-25 21:51:42】快件在【郑州分拨中心】正发往【武汉分拨中心】', 'location': '郑州市'}, {'time': '2019-09-24 22:33:27', 'ftime': '2019-09-24 22:33:27', 'context': '【2019-09-24 22:33:27】快件已到达【郑州分拨中心】', 'location': '郑州市'}, {'time': '2019-09-24 20:10:56', 'ftime': '2019-09-24 20:10:56', 'context': '【2019-09-24 20:10:56】快件在【郑州荥阳】正发往【郑州分拨中心】', 'location': '郑州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 03:12:16', 'ftime': '2019-09-29 03:12:16', 'context': '【淮安市】 快件离开 【淮安中转】 已发往 【南京中转部】', 'location': ''}, {'time': '2019-09-29 03:03:45', 'ftime': '2019-09-29 03:03:45', 'context': '【淮安市】 快件已经到达 【淮安中转】', 'location': ''}, {'time': '2019-09-28 22:21:55', 'ftime': '2019-09-28 22:21:55', 'context': '【临沂市】 快件离开 【临沂中转部】 已发往 【淮安中转】', 'location': ''}, {'time': '2019-09-28 22:19:33', 'ftime': '2019-09-28 22:19:33', 'context': '【临沂市】 快件已经到达 【临沂中转部】', 'location': ''}, {'time': '2019-09-28 20:40:55', 'ftime': '2019-09-28 20:40:55', 'context': '【临沂市】 快件离开 【临沂北园】 已发往 【临沂中转部】', 'location': ''}, {'time': '2019-09-28 19:52:08', 'ftime': '2019-09-28 19:52:08', 'context': '【临沂市】 【临沂北园】（15318226925） 的 彭成名15265392560（15265392560） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.07342799999999999</v>
+        <v>0.073015</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.017786</v>
+        <v>0.00783</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (7).xlsx
+++ b/data_excel/接口测试用例_ (7).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-08-25 14:44:58', 'ftime': '2018-08-25 14:44:58', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-08-25 14:44:43', 'ftime': '2018-08-25 14:44:43', 'context': ' 上门取件失败，准备再次取件，原因：无法联系客户，备注：再投无备注下次再投时间:2018-08-26 10:00:00', 'location': None}, {'time': '2018-08-25 09:41:12', 'ftime': '2018-08-25 09:41:12', 'context': ' 配送员：袁叶松已出发，手机号：18685135757或18586879410，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-08-24 21:06:55', 'ftime': '2018-08-24 21:06:55', 'context': ' 上门取件失败，准备再次取件，原因：无法联系客户，备注：再投无备注下次再投时间:2018-08-25 18:00:00', 'location': None}, {'time': '2018-08-24 08:37:56', 'ftime': '2018-08-24 08:37:56', 'context': ' 配送员：袁叶松已出发，手机号：18685135757或18586879410，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-08-24 07:04:52', 'ftime': '2018-08-24 07:04:52', 'context': ' 取件任务分配给如意站', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 06:25:08', 'ftime': '2019-09-28 06:25:08', 'context': '运输中，离开【沈阳转运中心】，下一站【重庆转运中心】', 'location': None}, {'time': '2019-09-27 16:02:42', 'ftime': '2019-09-27 16:02:42', 'context': '您的订单已被收件员揽收,【沈阳皇姑区黄河快递分部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07057099999999999</v>
+        <v>0.070129</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.00893</v>
+        <v>0.011124</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:07:14', 'context': '查无结果', 'ftime': '2019-09-27 10:07:14'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:22:17', 'context': '查无结果', 'ftime': '2019-08-31 10:22:17'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.06592199999999999</v>
+        <v>0.063579</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009157999999999999</v>
+        <v>0.009095000000000001</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 17:49:53', 'ftime': '2019-09-22 17:49:53', 'context': '[黑龙江哈尔滨香坊区幸福镇公司]快件已被 拍照 签收', 'location': '黑龙江哈尔滨香坊区幸福镇公司'}, {'time': '2019-09-22 17:21:01', 'ftime': '2019-09-22 17:21:01', 'context': '[黑龙江哈尔滨香坊区幸福镇公司]进行派件扫描；派送业务员：张平；联系电话：15561898541', 'location': '黑龙江哈尔滨香坊区幸福镇公司'}, {'time': '2019-09-22 12:07:01', 'ftime': '2019-09-22 12:07:01', 'context': '[黑龙江哈尔滨分拨中心]从站点发出，本次转运目的地：黑龙江哈尔滨香坊区幸福镇公司', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-22 11:05:26', 'ftime': '2019-09-22 11:05:26', 'context': '[黑龙江哈尔滨分拨中心]在分拨中心进行称重扫描', 'location': '黑龙江哈尔滨分拨中心'}, {'time': '2019-09-20 04:55:44', 'ftime': '2019-09-20 04:55:44', 'context': '[广东广州分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 23:03:08', 'ftime': '2019-09-19 23:03:08', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 06:35:56', 'ftime': '2019-09-19 06:35:56', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：黑龙江哈尔滨网点包', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-19 00:08:01', 'ftime': '2019-09-19 00:08:01', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-07 14:41:39', 'ftime': '2018-11-07 14:41:39', 'context': '客户 已签收 感谢使用圆通速递，期待再次为您服务', 'location': None}, {'time': '2018-11-07 14:41:39', 'ftime': '2018-11-07 14:41:39', 'context': '【贵州省贵阳市小河区公司】 派件人 :莫新科 派件中 派件员电话13017481988', 'location': None}, {'time': '2018-11-07 06:29:27', 'ftime': '2018-11-07 06:29:27', 'context': '【贵州省贵阳市小河区公司】 已收入', 'location': None}, {'time': '2018-11-07 02:14:19', 'ftime': '2018-11-07 02:14:19', 'context': '【贵阳转运中心】 已发出 下一站 【贵州省贵阳市小河区公司】', 'location': None}, {'time': '2018-11-07 01:20:52', 'ftime': '2018-11-07 01:20:52', 'context': '【贵阳转运中心】 已发出 下一站 【贵州省贵阳市小河区公司】', 'location': None}, {'time': '2018-11-07 00:31:34', 'ftime': '2018-11-07 00:31:34', 'context': '【贵阳转运中心】 已收入', 'location': None}, {'time': '2018-11-06 14:04:54', 'ftime': '2018-11-06 14:04:54', 'context': '【贵州省兴义市】 已发出 下一站 【贵阳转运中心】', 'location': None}, {'time': '2018-10-31 15:00:53', 'ftime': '2018-10-31 15:00:53', 'context': '【贵州省兴义市公司】 派件人 :雷小琼 派件中 派件员电话18985690104', 'location': None}, {'time': '2018-10-31 09:07:58', 'ftime': '2018-10-31 09:07:58', 'context': '【贵州省兴义市公司】 已收入', 'location': None}, {'time': '2018-10-30 19:52:23', 'ftime': '2018-10-30 19:52:23', 'context': '【贵阳转运中心】 已收入', 'location': None}, {'time': '2018-10-30 18:06:41', 'ftime': '2018-10-30 18:06:41', 'context': '【贵州省贵阳市小河区】 已发出 下一站 【贵阳转运中心】', 'location': None}, {'time': '2018-10-30 16:06:22', 'ftime': '2018-10-30 16:06:22', 'context': '【贵州省贵阳市小河区公司】 已打包', 'location': None}, {'time': '2018-10-30 14:28:29', 'ftime': '2018-10-30 14:28:29', 'context': '【贵州省贵阳市小河区公司】 已收件', 'location': None}, {'time': '2018-10-30 13:23:11', 'ftime': '2018-10-30 13:23:11', 'context': '【贵州省贵阳市小河区公司】 已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07562000000000001</v>
+        <v>0.06947399999999999</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010112</v>
+        <v>0.008831</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-03 14:24:17', 'ftime': '2018-11-03 14:24:17', 'context': '订单已由亲属代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-03 10:01:29', 'ftime': '2018-11-03 10:01:29', 'context': '配送员开始配送，请您准备收货，配送员，朱延胜，手机号，18915170885', 'location': None}, {'time': '2018-11-03 09:12:24', 'ftime': '2018-11-03 09:12:24', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-03 09:12:23', 'ftime': '2018-11-03 09:12:23', 'context': '货物已到达【淮安淮水站】', 'location': None}, {'time': '2018-11-02 23:49:55', 'ftime': '2018-11-02 23:49:55', 'context': '货物已完成分拣，离开【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 23:47:27', 'ftime': '2018-11-02 23:47:27', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 23:47:12', 'ftime': '2018-11-02 23:47:12', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 23:47:09', 'ftime': '2018-11-02 23:47:09', 'context': '货物已到达【宿迁分拨中心】', 'location': None}, {'time': '2018-11-02 14:04:13', 'ftime': '2018-11-02 14:04:13', 'context': '货物已完成分拣，离开【昆山千灯亚一分拣中心】', 'location': None}, {'time': '2018-11-02 14:03:13', 'ftime': '2018-11-02 14:03:13', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-02 14:03:13', 'ftime': '2018-11-02 14:03:13', 'context': '货物已到达【昆山千灯亚一分拣中心】', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 04:11:38', 'ftime': '2019-09-29 04:11:38', 'context': '到达【石家中心】', 'location': ''}, {'time': '2019-09-28 03:42:43', 'ftime': '2019-09-28 03:42:43', 'context': '离开【金华分拣】,下一站【石家中心】', 'location': ''}, {'time': '2019-09-27 20:01:06', 'ftime': '2019-09-27 20:01:06', 'context': '到达【邮政东阳市邮件分发班】', 'location': ''}, {'time': '2019-09-27 19:51:58', 'ftime': '2019-09-27 19:51:58', 'context': '离开【东阳快包】,下一站【东阳分拣】', 'location': ''}, {'time': '2019-09-27 18:56:30', 'ftime': '2019-09-27 18:56:30', 'context': '金华市 【东阳快包】已收件,揽投员:楼芝群,电话:13505898192', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.073739</v>
+        <v>0.078773</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.007262</v>
+        <v>0.009783999999999999</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-26 09:45:25', 'ftime': '2019-09-26 09:45:25', 'context': '已签收,签收人是（本人）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员业张聚航(15830059529)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-26 07:05:30', 'ftime': '2019-09-26 07:05:30', 'context': '北京新大红门公司-业张聚航(15830059529)-派件中', 'location': ''}, {'time': '2019-09-26 06:52:48', 'ftime': '2019-09-26 06:52:48', 'context': '已到达-北京新大红门公司', 'location': ''}, {'time': '2019-09-26 06:50:16', 'ftime': '2019-09-26 06:50:16', 'context': '已到达-北京新大红门公司', 'location': ''}, {'time': '2019-09-26 02:39:22', 'ftime': '2019-09-26 02:39:22', 'context': '北京房山集散中心-已发往-北京新大红门公司', 'location': ''}, {'time': '2019-09-26 02:28:05', 'ftime': '2019-09-26 02:28:05', 'context': '已到达-北京房山集散中心', 'location': ''}, {'time': '2019-09-25 03:15:45', 'ftime': '2019-09-25 03:15:45', 'context': '浙江杭州航空部-已装袋发往-北京转运中心', 'location': ''}, {'time': '2019-09-25 03:15:45', 'ftime': '2019-09-25 03:15:45', 'context': '浙江杭州航空部-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 03:00:43', 'ftime': '2019-09-25 03:00:43', 'context': '已到达-浙江杭州航空部', 'location': ''}, {'time': '2019-09-25 00:10:45', 'ftime': '2019-09-25 00:10:45', 'context': '浙江湖州公司-已装袋发往-浙江杭州航空部', 'location': ''}, {'time': '2019-09-25 00:10:45', 'ftime': '2019-09-25 00:10:45', 'context': '浙江湖州公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-24 23:41:12', 'ftime': '2019-09-24 23:41:12', 'context': '浙江湖州公司-已发往-浙江杭州航空部', 'location': ''}, {'time': '2019-09-24 23:41:12', 'ftime': '2019-09-24 23:41:12', 'context': '浙江湖州公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-24 23:40:50', 'ftime': '2019-09-24 23:40:50', 'context': '浙江湖州公司-自动化分拣(0572-2381999)-已收件', 'location': ''}, {'time': '2019-09-24 23:40:47', 'ftime': '2019-09-24 23:40:47', 'context': '浙江湖州织里公司-浙江湖州织里公司-已收件', 'location': ''}, {'time': '2019-09-24 23:37:58', 'ftime': '2019-09-24 23:37:58', 'context': '浙江湖州公司-自动化分拣(0572-2381999)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:14:52', 'ftime': '2019-09-29 09:14:52', 'context': '【浙江省宁波市象山县公司】 派件中 派件人: 周乾隆 电话 13777966195 如有疑问，请联系：0574-65711400', 'location': ''}, {'time': '2019-09-29 07:11:20', 'ftime': '2019-09-29 07:11:20', 'context': '【浙江省宁波市象山县公司】 已收入', 'location': ''}, {'time': '2019-09-28 22:19:09', 'ftime': '2019-09-28 22:19:09', 'context': '【宁波转运中心】 已发出 下一站 【浙江省宁波市象山县】', 'location': ''}, {'time': '2019-09-28 22:12:04', 'ftime': '2019-09-28 22:12:04', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 14:55:12', 'ftime': '2019-09-28 14:55:12', 'context': '【杭州转运中心】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-28 14:52:20', 'ftime': '2019-09-28 14:52:20', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 22:27:51', 'ftime': '2019-09-27 22:27:51', 'context': '【漯河转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-27 22:24:56', 'ftime': '2019-09-27 22:24:56', 'context': '【漯河转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 19:53:51', 'ftime': '2019-09-27 19:53:51', 'context': '【河南省平顶山市】 已发出 下一站 【漯河转运中心】', 'location': ''}, {'time': '2019-09-27 18:16:48', 'ftime': '2019-09-27 18:16:48', 'context': '【河南省平顶山市公司】 已打包', 'location': ''}, {'time': '2019-09-27 18:05:55', 'ftime': '2019-09-27 18:05:55', 'context': '【河南省平顶山市公司】 已收件 取件人: 王丽 (18937527521)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.069814</v>
+        <v>0.071659</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.008887000000000001</v>
+        <v>0.011878</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 21:39:47', 'ftime': '2019-09-27 21:39:47', 'context': '货物已完成分拣，离开【杭州富阳外单分拣中心】', 'location': ''}, {'time': '2019-09-27 21:13:23', 'ftime': '2019-09-27 21:13:23', 'context': '货物已到达【杭州富阳外单分拣中心】', 'location': ''}, {'time': '2019-09-27 17:43:28', 'ftime': '2019-09-27 17:43:28', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 17:43:28', 'ftime': '2019-09-27 17:43:28', 'context': '配送员李锋已经揽收完成', 'location': ''}, {'time': '2019-09-26 17:07:40', 'ftime': '2019-09-26 17:07:40', 'context': '揽收任务已分配给李锋,配送员电话13186984511', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:23:25', 'ftime': '2019-09-29 06:23:25', 'context': '【广州转运中心】 已发出 下一站 【南充转运中心】', 'location': ''}, {'time': '2019-09-29 06:11:16', 'ftime': '2019-09-29 06:11:16', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-29 04:03:48', 'ftime': '2019-09-29 04:03:48', 'context': '【广东省广州市嘉和】 已发出 下一站 【广州转运中心】', 'location': ''}, {'time': '2019-09-29 02:30:15', 'ftime': '2019-09-29 02:30:15', 'context': '【广东省广州市嘉和公司】 已打包', 'location': ''}, {'time': '2019-09-29 00:14:01', 'ftime': '2019-09-29 00:14:01', 'context': '【广东省广州市嘉和公司】 已收件 取件人: 陆广生 (13802797720)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.073972</v>
+        <v>0.068754</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010546</v>
+        <v>0.009039</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:07:14', 'context': '查无结果', 'ftime': '2019-09-03 10:07:14'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-17 10:22:18', 'context': '查无结果', 'ftime': '2019-09-17 10:22:18'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.067687</v>
+        <v>0.064151</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.011447</v>
+        <v>0.00915</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 10:07:14', 'context': '查无结果', 'ftime': '2019-09-28 10:07:14'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 18:30:24', 'ftime': '2019-09-20 18:30:24', 'context': '客户签收人: 妈妈驿站代签 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：15949676780，投诉电话：15579650616', 'location': ''}, {'time': '2019-09-20 11:26:48', 'ftime': '2019-09-20 11:26:48', 'context': '圆通地址中医院坡下玉峡店面妈妈驿站已发出自提短信,请上门自提,联系电话13437965595', 'location': ''}, {'time': '2019-09-20 11:26:46', 'ftime': '2019-09-20 11:26:46', 'context': '快件已到达圆通地址中医院坡下玉峡店面妈妈驿站,联系电话13437965595', 'location': ''}, {'time': '2019-09-20 11:24:46', 'ftime': '2019-09-20 11:24:46', 'context': '【江西省吉安市峡江县巴邱镇公司】 派件中 派件人: 廖红梅 电话 15949676780 如有疑问，请联系：15579650616', 'location': ''}, {'time': '2019-09-20 09:01:37', 'ftime': '2019-09-20 09:01:37', 'context': '【江西省吉安市峡江县公司】 已收入', 'location': ''}, {'time': '2019-09-19 19:38:42', 'ftime': '2019-09-19 19:38:42', 'context': '【新余转运中心】 已发出 下一站 【江西省吉安市峡江县】', 'location': ''}, {'time': '2019-09-19 19:36:42', 'ftime': '2019-09-19 19:36:42', 'context': '【新余转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 05:12:22', 'ftime': '2019-09-19 05:12:22', 'context': '【虎门转运中心】 已发出 下一站 【新余转运中心】', 'location': ''}, {'time': '2019-09-19 05:08:50', 'ftime': '2019-09-19 05:08:50', 'context': '【虎门转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 00:09:02', 'ftime': '2019-09-19 00:09:02', 'context': '【深圳转运中心】 已发出 下一站 【虎门转运中心】', 'location': ''}, {'time': '2019-09-19 00:06:13', 'ftime': '2019-09-19 00:06:13', 'context': '【深圳转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-18 21:27:47', 'ftime': '2019-09-18 21:27:47', 'context': '【广东省深圳市宝树台】 已发出 下一站 【深圳转运中心】', 'location': ''}, {'time': '2019-09-18 21:27:37', 'ftime': '2019-09-18 21:27:37', 'context': '【广东省深圳市宝树台公司】 已收件 取件人: 戴俊文 (15914113358)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.06701799999999999</v>
+        <v>0.072952</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.014477</v>
+        <v>0.008904</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 03:12:16', 'ftime': '2019-09-29 03:12:16', 'context': '【淮安市】 快件离开 【淮安中转】 已发往 【南京中转部】', 'location': ''}, {'time': '2019-09-29 03:03:45', 'ftime': '2019-09-29 03:03:45', 'context': '【淮安市】 快件已经到达 【淮安中转】', 'location': ''}, {'time': '2019-09-28 22:21:55', 'ftime': '2019-09-28 22:21:55', 'context': '【临沂市】 快件离开 【临沂中转部】 已发往 【淮安中转】', 'location': ''}, {'time': '2019-09-28 22:19:33', 'ftime': '2019-09-28 22:19:33', 'context': '【临沂市】 快件已经到达 【临沂中转部】', 'location': ''}, {'time': '2019-09-28 20:40:55', 'ftime': '2019-09-28 20:40:55', 'context': '【临沂市】 快件离开 【临沂北园】 已发往 【临沂中转部】', 'location': ''}, {'time': '2019-09-28 19:52:08', 'ftime': '2019-09-28 19:52:08', 'context': '【临沂市】 【临沂北园】（15318226925） 的 彭成名15265392560（15265392560） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:19:15', 'ftime': '2019-09-29 06:19:15', 'context': '快件已到达【沈阳分拨】', 'location': ''}, {'time': '2019-09-29 06:19:15', 'ftime': '2019-09-29 06:19:15', 'context': ' 所有货物（共1件）已到达【沈阳分拨】;', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.073015</v>
+        <v>0.070492</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.00783</v>
+        <v>0.010963</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (7).xlsx
+++ b/data_excel/接口测试用例_ (7).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 06:25:08', 'ftime': '2019-09-28 06:25:08', 'context': '运输中，离开【沈阳转运中心】，下一站【重庆转运中心】', 'location': None}, {'time': '2019-09-27 16:02:42', 'ftime': '2019-09-27 16:02:42', 'context': '您的订单已被收件员揽收,【沈阳皇姑区黄河快递分部】库存中', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:28:27', 'context': '查无结果', 'ftime': '2019-09-03 10:28:27'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.070129</v>
+        <v>0.06843299999999999</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.011124</v>
+        <v>0.009631000000000001</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:22:17', 'context': '查无结果', 'ftime': '2019-08-31 10:22:17'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 06:03:17', 'ftime': '2019-09-27 06:03:17', 'context': '【武汉市】 快件已经到达 【武汉吴家山】', 'location': ''}, {'time': '2019-09-26 03:55:06', 'ftime': '2019-09-26 03:55:06', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-25 19:53:27', 'ftime': '2019-09-25 19:53:27', 'context': '【福州市】 快件离开 【闽侯上街】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-24 21:45:13', 'ftime': '2019-09-24 21:45:13', 'context': '【福州市】 快件离开 【福州中转】 已发往 【上街二部】', 'location': ''}, {'time': '2019-09-24 19:31:30', 'ftime': '2019-09-24 19:31:30', 'context': '【福州市】 快件已经到达 【福州中转】', 'location': ''}, {'time': '2019-09-23 22:42:58', 'ftime': '2019-09-23 22:42:58', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【福州中转】', 'location': ''}, {'time': '2019-09-23 22:41:53', 'ftime': '2019-09-23 22:41:53', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-23 21:22:25', 'ftime': '2019-09-23 21:22:25', 'context': '【武汉市】 快件离开 【武汉吴家山】 已发往 【福州中转】', 'location': ''}, {'time': '2019-09-22 17:01:54', 'ftime': '2019-09-22 17:01:54', 'context': '【武汉市】 【武汉吴家山】（17764020506） 的 柯丽（13388605702） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.063579</v>
+        <v>0.071613</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009095000000000001</v>
+        <v>0.011615</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-07 14:41:39', 'ftime': '2018-11-07 14:41:39', 'context': '客户 已签收 感谢使用圆通速递，期待再次为您服务', 'location': None}, {'time': '2018-11-07 14:41:39', 'ftime': '2018-11-07 14:41:39', 'context': '【贵州省贵阳市小河区公司】 派件人 :莫新科 派件中 派件员电话13017481988', 'location': None}, {'time': '2018-11-07 06:29:27', 'ftime': '2018-11-07 06:29:27', 'context': '【贵州省贵阳市小河区公司】 已收入', 'location': None}, {'time': '2018-11-07 02:14:19', 'ftime': '2018-11-07 02:14:19', 'context': '【贵阳转运中心】 已发出 下一站 【贵州省贵阳市小河区公司】', 'location': None}, {'time': '2018-11-07 01:20:52', 'ftime': '2018-11-07 01:20:52', 'context': '【贵阳转运中心】 已发出 下一站 【贵州省贵阳市小河区公司】', 'location': None}, {'time': '2018-11-07 00:31:34', 'ftime': '2018-11-07 00:31:34', 'context': '【贵阳转运中心】 已收入', 'location': None}, {'time': '2018-11-06 14:04:54', 'ftime': '2018-11-06 14:04:54', 'context': '【贵州省兴义市】 已发出 下一站 【贵阳转运中心】', 'location': None}, {'time': '2018-10-31 15:00:53', 'ftime': '2018-10-31 15:00:53', 'context': '【贵州省兴义市公司】 派件人 :雷小琼 派件中 派件员电话18985690104', 'location': None}, {'time': '2018-10-31 09:07:58', 'ftime': '2018-10-31 09:07:58', 'context': '【贵州省兴义市公司】 已收入', 'location': None}, {'time': '2018-10-30 19:52:23', 'ftime': '2018-10-30 19:52:23', 'context': '【贵阳转运中心】 已收入', 'location': None}, {'time': '2018-10-30 18:06:41', 'ftime': '2018-10-30 18:06:41', 'context': '【贵州省贵阳市小河区】 已发出 下一站 【贵阳转运中心】', 'location': None}, {'time': '2018-10-30 16:06:22', 'ftime': '2018-10-30 16:06:22', 'context': '【贵州省贵阳市小河区公司】 已打包', 'location': None}, {'time': '2018-10-30 14:28:29', 'ftime': '2018-10-30 14:28:29', 'context': '【贵州省贵阳市小河区公司】 已收件', 'location': None}, {'time': '2018-10-30 13:23:11', 'ftime': '2018-10-30 13:23:11', 'context': '【贵州省贵阳市小河区公司】 已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:28:28', 'context': '查无结果', 'ftime': '2019-09-27 10:28:28'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.06947399999999999</v>
+        <v>0.078623</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.008831</v>
+        <v>0.009934</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 04:11:38', 'ftime': '2019-09-29 04:11:38', 'context': '到达【石家中心】', 'location': ''}, {'time': '2019-09-28 03:42:43', 'ftime': '2019-09-28 03:42:43', 'context': '离开【金华分拣】,下一站【石家中心】', 'location': ''}, {'time': '2019-09-27 20:01:06', 'ftime': '2019-09-27 20:01:06', 'context': '到达【邮政东阳市邮件分发班】', 'location': ''}, {'time': '2019-09-27 19:51:58', 'ftime': '2019-09-27 19:51:58', 'context': '离开【东阳快包】,下一站【东阳分拣】', 'location': ''}, {'time': '2019-09-27 18:56:30', 'ftime': '2019-09-27 18:56:30', 'context': '金华市 【东阳快包】已收件,揽投员:楼芝群,电话:13505898192', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:38:49', 'ftime': '2019-09-29 08:38:49', 'context': '【浙江省宁波市北仑公司】 派件中 派件人: 王玉君 电话 18757457222 如有疑问，请联系：0574-86118866', 'location': ''}, {'time': '2019-09-29 05:20:45', 'ftime': '2019-09-29 05:20:45', 'context': '【宁波转运中心】 已发出 下一站 【浙江省宁波市北仑】', 'location': ''}, {'time': '2019-09-29 03:32:03', 'ftime': '2019-09-29 03:32:03', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 21:45:25', 'ftime': '2019-09-28 21:45:25', 'context': '【上虞转运中心】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-28 21:43:16', 'ftime': '2019-09-28 21:43:16', 'context': '【上虞转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 23:35:52', 'ftime': '2019-09-27 23:35:52', 'context': '【武汉转运中心】 已发出 下一站 【上虞转运中心】', 'location': ''}, {'time': '2019-09-27 23:24:39', 'ftime': '2019-09-27 23:24:39', 'context': '【武汉转运中心公司】 已打包', 'location': ''}, {'time': '2019-09-27 20:53:33', 'ftime': '2019-09-27 20:53:33', 'context': '【武汉转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 16:34:38', 'ftime': '2019-09-27 16:34:38', 'context': '【湖北省黄冈市红安县】 已发出 下一站 【武汉转运中心】', 'location': ''}, {'time': '2019-09-26 19:43:32', 'ftime': '2019-09-26 19:43:32', 'context': '【湖北省黄冈市红安县公司】 已收件 取件人: 华兴家 (13554350459)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.078773</v>
+        <v>0.070087</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009783999999999999</v>
+        <v>0.018628</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:14:52', 'ftime': '2019-09-29 09:14:52', 'context': '【浙江省宁波市象山县公司】 派件中 派件人: 周乾隆 电话 13777966195 如有疑问，请联系：0574-65711400', 'location': ''}, {'time': '2019-09-29 07:11:20', 'ftime': '2019-09-29 07:11:20', 'context': '【浙江省宁波市象山县公司】 已收入', 'location': ''}, {'time': '2019-09-28 22:19:09', 'ftime': '2019-09-28 22:19:09', 'context': '【宁波转运中心】 已发出 下一站 【浙江省宁波市象山县】', 'location': ''}, {'time': '2019-09-28 22:12:04', 'ftime': '2019-09-28 22:12:04', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 14:55:12', 'ftime': '2019-09-28 14:55:12', 'context': '【杭州转运中心】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-28 14:52:20', 'ftime': '2019-09-28 14:52:20', 'context': '【杭州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 22:27:51', 'ftime': '2019-09-27 22:27:51', 'context': '【漯河转运中心】 已发出 下一站 【杭州转运中心】', 'location': ''}, {'time': '2019-09-27 22:24:56', 'ftime': '2019-09-27 22:24:56', 'context': '【漯河转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 19:53:51', 'ftime': '2019-09-27 19:53:51', 'context': '【河南省平顶山市】 已发出 下一站 【漯河转运中心】', 'location': ''}, {'time': '2019-09-27 18:16:48', 'ftime': '2019-09-27 18:16:48', 'context': '【河南省平顶山市公司】 已打包', 'location': ''}, {'time': '2019-09-27 18:05:55', 'ftime': '2019-09-27 18:05:55', 'context': '【河南省平顶山市公司】 已收件 取件人: 王丽 (18937527521)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-19 16:33:55', 'ftime': '2019-09-19 16:33:55', 'context': '[四川成都崇州市公司]快件已被 易邮柜代收2（快递柜代收） 代签收如有问题请联系罗玉林【18583231817】。', 'location': '四川成都崇州市公司'}, {'time': '2019-09-19 15:52:46', 'ftime': '2019-09-19 15:52:46', 'context': '[四川成都崇州市公司]进行派件扫描；派送业务员：罗玉林；联系电话：18583231817', 'location': '四川成都崇州市公司'}, {'time': '2019-09-19 06:59:28', 'ftime': '2019-09-19 06:59:28', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都崇州市公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-19 06:28:34', 'ftime': '2019-09-19 06:28:34', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-18 00:34:43', 'ftime': '2019-09-18 00:34:43', 'context': '[广东广州分拨中心]进行装车扫描，发往：四川成都分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-18 00:32:55', 'ftime': '2019-09-18 00:32:55', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-17 21:40:04', 'ftime': '2019-09-17 21:40:04', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：川中市内包', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-17 21:02:57', 'ftime': '2019-09-17 21:02:57', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.071659</v>
+        <v>0.07088</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011878</v>
+        <v>0.010682</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:23:25', 'ftime': '2019-09-29 06:23:25', 'context': '【广州转运中心】 已发出 下一站 【南充转运中心】', 'location': ''}, {'time': '2019-09-29 06:11:16', 'ftime': '2019-09-29 06:11:16', 'context': '【广州转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-29 04:03:48', 'ftime': '2019-09-29 04:03:48', 'context': '【广东省广州市嘉和】 已发出 下一站 【广州转运中心】', 'location': ''}, {'time': '2019-09-29 02:30:15', 'ftime': '2019-09-29 02:30:15', 'context': '【广东省广州市嘉和公司】 已打包', 'location': ''}, {'time': '2019-09-29 00:14:01', 'ftime': '2019-09-29 00:14:01', 'context': '【广东省广州市嘉和公司】 已收件 取件人: 陆广生 (13802797720)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 10:58:22', 'ftime': '2019-09-27 10:58:22', 'context': '【呼和浩特市】 快件已由【日日顺的南二环小台小区北门】代签收, 如有问题请电联（18048333290 / 4006406999）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-27 08:30:49', 'ftime': '2019-09-27 08:30:49', 'context': '【呼和浩特市】 【呼市中海分部】 的牧仁18048333290（18048333290） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-27 08:30:48', 'ftime': '2019-09-27 08:30:48', 'context': '【呼和浩特市】 快件已经到达 【呼市中海分部】', 'location': ''}, {'time': '2019-09-26 17:51:16', 'ftime': '2019-09-26 17:51:16', 'context': '【呼和浩特市】 快件离开 【呼和浩特中转】 已发往 【呼市中海分部】', 'location': ''}, {'time': '2019-09-26 14:53:02', 'ftime': '2019-09-26 14:53:02', 'context': '【呼和浩特市】 快件已经到达 【呼和浩特中转】', 'location': ''}, {'time': '2019-09-26 06:29:15', 'ftime': '2019-09-26 06:29:15', 'context': '【北京市】 快件离开 【北京】 已发往 【呼和浩特中转】', 'location': ''}, {'time': '2019-09-26 06:20:03', 'ftime': '2019-09-26 06:20:03', 'context': '【北京市】 快件已经到达 【北京】', 'location': ''}, {'time': '2019-09-26 00:44:59', 'ftime': '2019-09-26 00:44:59', 'context': '【沧州市】 快件离开 【沧衡转运中心】 已发往 【北京】', 'location': ''}, {'time': '2019-09-26 00:44:25', 'ftime': '2019-09-26 00:44:25', 'context': '【沧州市】 快件已经到达 【沧衡转运中心】', 'location': ''}, {'time': '2019-09-25 20:58:37', 'ftime': '2019-09-25 20:58:37', 'context': '【沧州市】 快件离开 【沧州】 已发往 【呼和浩特中转】', 'location': ''}, {'time': '2019-09-25 19:05:39', 'ftime': '2019-09-25 19:05:39', 'context': '【沧州市】 【沧州】（0317-3202885、0317-3202886、0317-3560558） 的 商城分部（15612702292） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.068754</v>
+        <v>0.077912</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009039</v>
+        <v>0.009207</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-17 10:22:18', 'context': '查无结果', 'ftime': '2019-09-17 10:22:18'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 23:43:23', 'ftime': '2019-09-27 23:43:23', 'context': '[西安市]西安市【西安转运中心】，正发往【虎门转运中心】', 'location': None}, {'time': '2019-09-27 23:40:17', 'ftime': '2019-09-27 23:40:17', 'context': '[西安市]到西安市【西安转运中心】', 'location': None}, {'time': '2019-09-27 08:17:07', 'ftime': '2019-09-27 08:17:07', 'context': '[渭南市]渭南市【大荔】，【苗发亮（赵渡）/18292345880】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.064151</v>
+        <v>0.069342</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.00915</v>
+        <v>0.009127</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 18:30:24', 'ftime': '2019-09-20 18:30:24', 'context': '客户签收人: 妈妈驿站代签 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：15949676780，投诉电话：15579650616', 'location': ''}, {'time': '2019-09-20 11:26:48', 'ftime': '2019-09-20 11:26:48', 'context': '圆通地址中医院坡下玉峡店面妈妈驿站已发出自提短信,请上门自提,联系电话13437965595', 'location': ''}, {'time': '2019-09-20 11:26:46', 'ftime': '2019-09-20 11:26:46', 'context': '快件已到达圆通地址中医院坡下玉峡店面妈妈驿站,联系电话13437965595', 'location': ''}, {'time': '2019-09-20 11:24:46', 'ftime': '2019-09-20 11:24:46', 'context': '【江西省吉安市峡江县巴邱镇公司】 派件中 派件人: 廖红梅 电话 15949676780 如有疑问，请联系：15579650616', 'location': ''}, {'time': '2019-09-20 09:01:37', 'ftime': '2019-09-20 09:01:37', 'context': '【江西省吉安市峡江县公司】 已收入', 'location': ''}, {'time': '2019-09-19 19:38:42', 'ftime': '2019-09-19 19:38:42', 'context': '【新余转运中心】 已发出 下一站 【江西省吉安市峡江县】', 'location': ''}, {'time': '2019-09-19 19:36:42', 'ftime': '2019-09-19 19:36:42', 'context': '【新余转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 05:12:22', 'ftime': '2019-09-19 05:12:22', 'context': '【虎门转运中心】 已发出 下一站 【新余转运中心】', 'location': ''}, {'time': '2019-09-19 05:08:50', 'ftime': '2019-09-19 05:08:50', 'context': '【虎门转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-19 00:09:02', 'ftime': '2019-09-19 00:09:02', 'context': '【深圳转运中心】 已发出 下一站 【虎门转运中心】', 'location': ''}, {'time': '2019-09-19 00:06:13', 'ftime': '2019-09-19 00:06:13', 'context': '【深圳转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-18 21:27:47', 'ftime': '2019-09-18 21:27:47', 'context': '【广东省深圳市宝树台】 已发出 下一站 【深圳转运中心】', 'location': ''}, {'time': '2019-09-18 21:27:37', 'ftime': '2019-09-18 21:27:37', 'context': '【广东省深圳市宝树台公司】 已收件 取件人: 戴俊文 (15914113358)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 00:34:38', 'ftime': '2019-09-29 00:34:38', 'context': '[西安航空部]从站点发出，本次转运目的地：西安航空部华瀚货代分部', 'location': '西安航空部'}, {'time': '2019-09-28 16:50:07', 'ftime': '2019-09-28 16:50:07', 'context': '[陕西西安分拨中心]在分拨中心进行卸车扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-28 00:09:21', 'ftime': '2019-09-28 00:09:21', 'context': '[甘肃兰州分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '甘肃兰州分拨中心'}, {'time': '2019-09-27 22:18:09', 'ftime': '2019-09-27 22:18:09', 'context': '[甘肃兰州分拨中心]进行中转集包扫描，发往：福建厦门分拨中心', 'location': '甘肃兰州分拨中心'}, {'time': '2019-09-27 21:54:10', 'ftime': '2019-09-27 21:54:10', 'context': '[甘肃兰州分拨中心]在分拨中心进行称重扫描', 'location': '甘肃兰州分拨中心'}, {'time': '2019-09-27 17:41:29', 'ftime': '2019-09-27 17:41:29', 'context': '[甘肃兰州红古区公司]进行发出扫描，发往：甘肃兰州分拨中心', 'location': '甘肃兰州红古区公司'}, {'time': '2019-09-27 17:41:00', 'ftime': '2019-09-27 17:41:00', 'context': '[甘肃兰州红古区公司]进行揽件扫描', 'location': '甘肃兰州红古区公司'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.072952</v>
+        <v>0.06855700000000001</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.008904</v>
+        <v>0.010146</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:19:15', 'ftime': '2019-09-29 06:19:15', 'context': '快件已到达【沈阳分拨】', 'location': ''}, {'time': '2019-09-29 06:19:15', 'ftime': '2019-09-29 06:19:15', 'context': ' 所有货物（共1件）已到达【沈阳分拨】;', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:55:42', 'ftime': '2019-09-29 09:55:42', 'context': '快件到达 杭州转运中心', 'location': ''}, {'time': '2019-09-28 01:07:52', 'ftime': '2019-09-28 01:07:52', 'context': '成都转运中心已发出，下一站杭州转运中心', 'location': ''}, {'time': '2019-09-28 01:02:31', 'ftime': '2019-09-28 01:02:31', 'context': '快件到达 成都转运中心', 'location': ''}, {'time': '2019-09-28 00:01:56', 'ftime': '2019-09-28 00:01:56', 'context': '承诺达成都集散中心已发出，下一站成都转运中心', 'location': ''}, {'time': '2019-09-27 20:33:35', 'ftime': '2019-09-27 20:33:35', 'context': '快件到达 承诺达成都集散中心', 'location': ''}, {'time': '2019-09-27 19:01:19', 'ftime': '2019-09-27 19:01:19', 'context': '承诺达四川省成都市东升街道营业部已发出，下一站承诺达成都集散中心', 'location': ''}, {'time': '2019-09-27 18:59:25', 'ftime': '2019-09-27 18:59:25', 'context': '承诺达四川省成都市东升街道营业部已收入', 'location': ''}, {'time': '2019-09-27 18:21:47', 'ftime': '2019-09-27 18:21:47', 'context': '承诺达四川省成都市东升街道营业部 已取件，取件员：蒋杰平 18512881562', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.070492</v>
+        <v>0.06995800000000001</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010963</v>
+        <v>0.009644</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (7).xlsx
+++ b/data_excel/接口测试用例_ (7).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:28:27', 'context': '查无结果', 'ftime': '2019-09-03 10:28:27'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:09:03', 'ftime': '2019-09-29 08:09:03', 'context': '到达【寺巷支局】', 'location': None}, {'time': '2019-09-29 07:54:49', 'ftime': '2019-09-29 07:54:49', 'context': '离开【泰州网路运营中心】,下一站【寺巷支局】', 'location': None}, {'time': '2019-09-29 04:24:41', 'ftime': '2019-09-29 04:24:41', 'context': '到达【泰州网路运营中心】', 'location': None}, {'time': '2019-09-28 23:00:33', 'ftime': '2019-09-28 23:00:33', 'context': '离开【邮政徐州市邮件处理分局】,下一站【泰州网路运营中心】（经转）', 'location': None}, {'time': '2019-09-27 21:45:25', 'ftime': '2019-09-27 21:45:25', 'context': '到达【邮政商丘市邮件】', 'location': None}, {'time': '2019-09-27 20:42:54', 'ftime': '2019-09-27 20:42:54', 'context': '离开【商丘市郊区大宗揽收营业部】,下一站【商丘中心】', 'location': None}, {'time': '2019-09-27 13:28:59', 'ftime': '2019-09-27 13:28:59', 'context': '【商丘市郊区大宗揽收营业部】已收件,揽投员:李德清,电话:13937050013', 'location': None}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.06843299999999999</v>
+        <v>0.071261</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009631000000000001</v>
+        <v>0.0089</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 06:03:17', 'ftime': '2019-09-27 06:03:17', 'context': '【武汉市】 快件已经到达 【武汉吴家山】', 'location': ''}, {'time': '2019-09-26 03:55:06', 'ftime': '2019-09-26 03:55:06', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-25 19:53:27', 'ftime': '2019-09-25 19:53:27', 'context': '【福州市】 快件离开 【闽侯上街】 已发往 【武汉中转部】', 'location': ''}, {'time': '2019-09-24 21:45:13', 'ftime': '2019-09-24 21:45:13', 'context': '【福州市】 快件离开 【福州中转】 已发往 【上街二部】', 'location': ''}, {'time': '2019-09-24 19:31:30', 'ftime': '2019-09-24 19:31:30', 'context': '【福州市】 快件已经到达 【福州中转】', 'location': ''}, {'time': '2019-09-23 22:42:58', 'ftime': '2019-09-23 22:42:58', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【福州中转】', 'location': ''}, {'time': '2019-09-23 22:41:53', 'ftime': '2019-09-23 22:41:53', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-23 21:22:25', 'ftime': '2019-09-23 21:22:25', 'context': '【武汉市】 快件离开 【武汉吴家山】 已发往 【福州中转】', 'location': ''}, {'time': '2019-09-22 17:01:54', 'ftime': '2019-09-22 17:01:54', 'context': '【武汉市】 【武汉吴家山】（17764020506） 的 柯丽（13388605702） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 12:31:38', 'ftime': '2019-09-29 12:31:38', 'context': '【成都市】 快件已在 【成都新都】 签收, 签收人: 本人, 如有疑问请电联:19940875851 / 028-62510551, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-29 04:56:49', 'ftime': '2019-09-29 04:56:49', 'context': '【成都市】 【成都新都】 的龙桥二部（17748085573） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 04:56:31', 'ftime': '2019-09-29 04:56:31', 'context': '【成都市】 快件已经到达 【成都新都】', 'location': ''}, {'time': '2019-09-29 01:17:30', 'ftime': '2019-09-29 01:17:30', 'context': '【成都市】 快件离开 【成都中转】 已发往 【成都新都】', 'location': ''}, {'time': '2019-09-29 00:34:56', 'ftime': '2019-09-29 00:34:56', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': ''}, {'time': '2019-09-27 23:05:37', 'ftime': '2019-09-27 23:05:37', 'context': '【长沙市】 快件离开 【长沙中转部】 已发往 【成都中转】', 'location': ''}, {'time': '2019-09-27 23:05:04', 'ftime': '2019-09-27 23:05:04', 'context': '【长沙市】 快件已经到达 【长沙中转部】', 'location': ''}, {'time': '2019-09-27 21:11:10', 'ftime': '2019-09-27 21:11:10', 'context': '【长沙市】 快件离开 【长沙雀园分部】 已发往 【长沙中转部】', 'location': ''}, {'time': '2019-09-27 21:10:17', 'ftime': '2019-09-27 21:10:17', 'context': '【长沙市】 【长沙雀园分部】（0731-88507359、17773173623） 的 和平分部（17773123668） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.071613</v>
+        <v>0.079139</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.011615</v>
+        <v>0.009311</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:28:28', 'context': '查无结果', 'ftime': '2019-09-27 10:28:28'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:13:00', 'ftime': '2019-07-30 16:13:00', 'context': '已签收，签收人类型：门卫', 'location': None}, {'time': '2019-07-30 16:13:00', 'ftime': '2019-07-30 16:13:00', 'context': '派送中，派件员：谢山川，电话：18145032567', 'location': None}, {'time': '2019-07-30 16:11:00', 'ftime': '2019-07-30 16:11:00', 'context': '提前通知。快递员：722973+谢山川，已提前通知收货人', 'location': None}, {'time': '2019-07-30 16:09:00', 'ftime': '2019-07-30 16:09:00', 'context': '提前通知。快递员：722973+谢山川，已提前通知收货人', 'location': None}, {'time': '2019-07-30 13:39:00', 'ftime': '2019-07-30 13:39:00', 'context': '预派送，派件员：谢山川，电话：18145032567', 'location': None}, {'time': '2019-07-30 12:47:00', 'ftime': '2019-07-30 12:47:00', 'context': '货物已到达东莞清溪镇聚富路快递分部', 'location': None}, {'time': '2019-07-30 11:30:00', 'ftime': '2019-07-30 11:30:00', 'context': '运输中，离开【东莞转运场】，下一站【东莞清溪镇聚富路快递分部】', 'location': None}, {'time': '2019-07-30 08:05:00', 'ftime': '2019-07-30 08:05:00', 'context': '货物已到达东莞转运场', 'location': None}, {'time': '2019-07-29 05:19:00', 'ftime': '2019-07-29 05:19:00', 'context': '运输中，离开【成都转运场】，下一站【东莞转运场】', 'location': None}, {'time': '2019-07-28 20:22:00', 'ftime': '2019-07-28 20:22:00', 'context': '货物已到达成都转运场', 'location': None}, {'time': '2019-07-28 18:40:00', 'ftime': '2019-07-28 18:40:00', 'context': '运输中，离开【宜宾江北区振兴大道营业部】，下一站【成都转运场】', 'location': None}, {'time': '2019-07-28 16:42:00', 'ftime': '2019-07-28 16:42:00', 'context': '您的订单已被收件员揽收,【宜宾江北区振兴大道营业部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.078623</v>
+        <v>0.07470499999999999</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009934</v>
+        <v>0.009698</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:38:49', 'ftime': '2019-09-29 08:38:49', 'context': '【浙江省宁波市北仑公司】 派件中 派件人: 王玉君 电话 18757457222 如有疑问，请联系：0574-86118866', 'location': ''}, {'time': '2019-09-29 05:20:45', 'ftime': '2019-09-29 05:20:45', 'context': '【宁波转运中心】 已发出 下一站 【浙江省宁波市北仑】', 'location': ''}, {'time': '2019-09-29 03:32:03', 'ftime': '2019-09-29 03:32:03', 'context': '【宁波转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-28 21:45:25', 'ftime': '2019-09-28 21:45:25', 'context': '【上虞转运中心】 已发出 下一站 【宁波转运中心】', 'location': ''}, {'time': '2019-09-28 21:43:16', 'ftime': '2019-09-28 21:43:16', 'context': '【上虞转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 23:35:52', 'ftime': '2019-09-27 23:35:52', 'context': '【武汉转运中心】 已发出 下一站 【上虞转运中心】', 'location': ''}, {'time': '2019-09-27 23:24:39', 'ftime': '2019-09-27 23:24:39', 'context': '【武汉转运中心公司】 已打包', 'location': ''}, {'time': '2019-09-27 20:53:33', 'ftime': '2019-09-27 20:53:33', 'context': '【武汉转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-27 16:34:38', 'ftime': '2019-09-27 16:34:38', 'context': '【湖北省黄冈市红安县】 已发出 下一站 【武汉转运中心】', 'location': ''}, {'time': '2019-09-26 19:43:32', 'ftime': '2019-09-26 19:43:32', 'context': '【湖北省黄冈市红安县公司】 已收件 取件人: 华兴家 (13554350459)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 16:10:57', 'context': '查无结果', 'ftime': '2019-09-05 16:10:57'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.070087</v>
+        <v>0.06256399999999999</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.018628</v>
+        <v>0.009660999999999999</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-19 16:33:55', 'ftime': '2019-09-19 16:33:55', 'context': '[四川成都崇州市公司]快件已被 易邮柜代收2（快递柜代收） 代签收如有问题请联系罗玉林【18583231817】。', 'location': '四川成都崇州市公司'}, {'time': '2019-09-19 15:52:46', 'ftime': '2019-09-19 15:52:46', 'context': '[四川成都崇州市公司]进行派件扫描；派送业务员：罗玉林；联系电话：18583231817', 'location': '四川成都崇州市公司'}, {'time': '2019-09-19 06:59:28', 'ftime': '2019-09-19 06:59:28', 'context': '[四川成都分拨中心]从站点发出，本次转运目的地：四川成都崇州市公司', 'location': '四川成都分拨中心'}, {'time': '2019-09-19 06:28:34', 'ftime': '2019-09-19 06:28:34', 'context': '[四川成都分拨中心]在分拨中心进行卸车扫描', 'location': '四川成都分拨中心'}, {'time': '2019-09-18 00:34:43', 'ftime': '2019-09-18 00:34:43', 'context': '[广东广州分拨中心]进行装车扫描，发往：四川成都分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-18 00:32:55', 'ftime': '2019-09-18 00:32:55', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-17 21:40:04', 'ftime': '2019-09-17 21:40:04', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：川中市内包', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-17 21:02:57', 'ftime': '2019-09-17 21:02:57', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 16:10:57', 'context': '查无结果', 'ftime': '2019-09-23 16:10:57'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.07088</v>
+        <v>0.06567199999999999</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010682</v>
+        <v>0.00927</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 10:58:22', 'ftime': '2019-09-27 10:58:22', 'context': '【呼和浩特市】 快件已由【日日顺的南二环小台小区北门】代签收, 如有问题请电联（18048333290 / 4006406999）, 感谢您使用中通快递, 期待再次为您服务!', 'location': ''}, {'time': '2019-09-27 08:30:49', 'ftime': '2019-09-27 08:30:49', 'context': '【呼和浩特市】 【呼市中海分部】 的牧仁18048333290（18048333290） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-27 08:30:48', 'ftime': '2019-09-27 08:30:48', 'context': '【呼和浩特市】 快件已经到达 【呼市中海分部】', 'location': ''}, {'time': '2019-09-26 17:51:16', 'ftime': '2019-09-26 17:51:16', 'context': '【呼和浩特市】 快件离开 【呼和浩特中转】 已发往 【呼市中海分部】', 'location': ''}, {'time': '2019-09-26 14:53:02', 'ftime': '2019-09-26 14:53:02', 'context': '【呼和浩特市】 快件已经到达 【呼和浩特中转】', 'location': ''}, {'time': '2019-09-26 06:29:15', 'ftime': '2019-09-26 06:29:15', 'context': '【北京市】 快件离开 【北京】 已发往 【呼和浩特中转】', 'location': ''}, {'time': '2019-09-26 06:20:03', 'ftime': '2019-09-26 06:20:03', 'context': '【北京市】 快件已经到达 【北京】', 'location': ''}, {'time': '2019-09-26 00:44:59', 'ftime': '2019-09-26 00:44:59', 'context': '【沧州市】 快件离开 【沧衡转运中心】 已发往 【北京】', 'location': ''}, {'time': '2019-09-26 00:44:25', 'ftime': '2019-09-26 00:44:25', 'context': '【沧州市】 快件已经到达 【沧衡转运中心】', 'location': ''}, {'time': '2019-09-25 20:58:37', 'ftime': '2019-09-25 20:58:37', 'context': '【沧州市】 快件离开 【沧州】 已发往 【呼和浩特中转】', 'location': ''}, {'time': '2019-09-25 19:05:39', 'ftime': '2019-09-25 19:05:39', 'context': '【沧州市】 【沧州】（0317-3202885、0317-3202886、0317-3560558） 的 商城分部（15612702292） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 10:21:16', 'ftime': '2019-09-29 10:21:16', 'context': '湖北省市场部六十部-客户爱唯宝-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.077912</v>
+        <v>0.07301000000000001</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009207</v>
+        <v>0.011815</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 23:43:23', 'ftime': '2019-09-27 23:43:23', 'context': '[西安市]西安市【西安转运中心】，正发往【虎门转运中心】', 'location': None}, {'time': '2019-09-27 23:40:17', 'ftime': '2019-09-27 23:40:17', 'context': '[西安市]到西安市【西安转运中心】', 'location': None}, {'time': '2019-09-27 08:17:07', 'ftime': '2019-09-27 08:17:07', 'context': '[渭南市]渭南市【大荔】，【苗发亮（赵渡）/18292345880】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-29 16:26:54', 'ftime': '2019-07-29 16:26:54', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-29 16:26:26', 'ftime': '2019-07-29 16:26:26', 'context': '提前通知。快递员：788005+彭金意，已提前通知收货人', 'location': None}, {'time': '2019-07-29 16:24:23', 'ftime': '2019-07-29 16:24:23', 'context': '提前通知。快递员：788005+彭金意，已提前通知收货人', 'location': None}, {'time': '2019-07-29 16:08:58', 'ftime': '2019-07-29 16:08:58', 'context': '派送中', 'location': None}, {'time': '2019-07-29 10:53:12', 'ftime': '2019-07-29 10:53:12', 'context': '预派送', 'location': None}, {'time': '2019-07-29 10:24:21', 'ftime': '2019-07-29 10:24:21', 'context': '预派送', 'location': None}, {'time': '2019-07-29 09:31:00', 'ftime': '2019-07-29 09:31:00', 'context': '货物已到达娄底娄星区新星北路快递分部', 'location': None}, {'time': '2019-07-29 06:45:41', 'ftime': '2019-07-29 06:45:41', 'context': '运输中，离开【长沙转运中心】，下一站【娄底娄星区新星北路快递分部】', 'location': None}, {'time': '2019-07-28 18:27:00', 'ftime': '2019-07-28 18:27:00', 'context': '货物已到达长沙转运中心', 'location': None}, {'time': '2019-07-28 07:52:23', 'ftime': '2019-07-28 07:52:23', 'context': '运输中，离开【顺德枢纽中心】，下一站【长沙转运中心】', 'location': None}, {'time': '2019-07-27 21:27:46', 'ftime': '2019-07-27 21:27:46', 'context': '您的订单已被收件员揽收，【中山沙溪镇快递分部,电话：17666377985】库存中', 'location': None}, {'time': '2019-07-27 21:27:46', 'ftime': '2019-07-27 21:27:46', 'context': '您的订单已被收件员揽收,【中山沙溪镇快递分部】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.069342</v>
+        <v>0.070631</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009127</v>
+        <v>0.009808000000000001</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 00:34:38', 'ftime': '2019-09-29 00:34:38', 'context': '[西安航空部]从站点发出，本次转运目的地：西安航空部华瀚货代分部', 'location': '西安航空部'}, {'time': '2019-09-28 16:50:07', 'ftime': '2019-09-28 16:50:07', 'context': '[陕西西安分拨中心]在分拨中心进行卸车扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-28 00:09:21', 'ftime': '2019-09-28 00:09:21', 'context': '[甘肃兰州分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '甘肃兰州分拨中心'}, {'time': '2019-09-27 22:18:09', 'ftime': '2019-09-27 22:18:09', 'context': '[甘肃兰州分拨中心]进行中转集包扫描，发往：福建厦门分拨中心', 'location': '甘肃兰州分拨中心'}, {'time': '2019-09-27 21:54:10', 'ftime': '2019-09-27 21:54:10', 'context': '[甘肃兰州分拨中心]在分拨中心进行称重扫描', 'location': '甘肃兰州分拨中心'}, {'time': '2019-09-27 17:41:29', 'ftime': '2019-09-27 17:41:29', 'context': '[甘肃兰州红古区公司]进行发出扫描，发往：甘肃兰州分拨中心', 'location': '甘肃兰州红古区公司'}, {'time': '2019-09-27 17:41:00', 'ftime': '2019-09-27 17:41:00', 'context': '[甘肃兰州红古区公司]进行揽件扫描', 'location': '甘肃兰州红古区公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 15:34:11', 'ftime': '2019-09-29 15:34:11', 'context': '[湖州市织里揽投部]在 湖州市 已签收,他人代收,投递员:胡昆飞,电话:13505821228', 'location': '湖州市织里揽投部'}, {'time': '2019-09-29 13:58:26', 'ftime': '2019-09-29 13:58:26', 'context': '【湖州市织里揽投部】安排投递,投递员:胡昆飞,电话:13505821228', 'location': '湖州市织里揽投部'}, {'time': '2019-09-29 13:32:05', 'ftime': '2019-09-29 13:32:05', 'context': '到达【湖州市织里揽投部】', 'location': '湖州市织里揽投部'}, {'time': '2019-09-29 11:58:19', 'ftime': '2019-09-29 11:58:19', 'context': '离开【邮政湖州市邮件】,下一站【湖州市织里揽投部】', 'location': '邮政湖州市邮件'}, {'time': '2019-09-29 09:23:20', 'ftime': '2019-09-29 09:23:20', 'context': '到达【邮政湖州市邮件】', 'location': '邮政湖州市邮件'}, {'time': '2019-09-29 06:51:16', 'ftime': '2019-09-29 06:51:16', 'context': '离开【南航集散】,下一站【邮政湖州市邮件】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 02:18:46', 'ftime': '2019-09-29 02:18:46', 'context': '到达【南航集散】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 00:21:21', 'ftime': '2019-09-29 00:21:21', 'context': '离开【广东航空邮件处理中心】,下一站【南航集散】（经转）', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-28 02:59:02', 'ftime': '2019-09-28 02:59:02', 'context': '到达【广东航空邮件处理中心】（经转）', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-27 23:57:02', 'ftime': '2019-09-27 23:57:02', 'context': '离开【珠海市邮件处理中心】,下一站【广东航空邮件处理中心】', 'location': '珠海市邮件处理中心'}, {'time': '2019-09-27 22:49:39', 'ftime': '2019-09-27 22:49:39', 'context': '到达【珠海市邮件处理中心】', 'location': '珠海市邮件处理中心'}, {'time': '2019-09-27 22:31:34', 'ftime': '2019-09-27 22:31:34', 'context': '离开【珠海市福溪揽投部】,下一站【珠海速处】', 'location': '珠海市福溪揽投部'}, {'time': '2019-09-27 22:18:50', 'ftime': '2019-09-27 22:18:50', 'context': '珠海市 【珠海市福溪揽投部】已收件,揽投员:方小兰,电话:18675629593', 'location': '珠海市福溪揽投部'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.06855700000000001</v>
+        <v>0.072676</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010146</v>
+        <v>0.009198</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:55:42', 'ftime': '2019-09-29 09:55:42', 'context': '快件到达 杭州转运中心', 'location': ''}, {'time': '2019-09-28 01:07:52', 'ftime': '2019-09-28 01:07:52', 'context': '成都转运中心已发出，下一站杭州转运中心', 'location': ''}, {'time': '2019-09-28 01:02:31', 'ftime': '2019-09-28 01:02:31', 'context': '快件到达 成都转运中心', 'location': ''}, {'time': '2019-09-28 00:01:56', 'ftime': '2019-09-28 00:01:56', 'context': '承诺达成都集散中心已发出，下一站成都转运中心', 'location': ''}, {'time': '2019-09-27 20:33:35', 'ftime': '2019-09-27 20:33:35', 'context': '快件到达 承诺达成都集散中心', 'location': ''}, {'time': '2019-09-27 19:01:19', 'ftime': '2019-09-27 19:01:19', 'context': '承诺达四川省成都市东升街道营业部已发出，下一站承诺达成都集散中心', 'location': ''}, {'time': '2019-09-27 18:59:25', 'ftime': '2019-09-27 18:59:25', 'context': '承诺达四川省成都市东升街道营业部已收入', 'location': ''}, {'time': '2019-09-27 18:21:47', 'ftime': '2019-09-27 18:21:47', 'context': '承诺达四川省成都市东升街道营业部 已取件，取件员：蒋杰平 18512881562', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 10:28:34', 'ftime': '2019-09-29 10:28:34', 'context': 'Пратката не подлежи на проследяване, Проследява се само препоръчана пратка.', 'location': None}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.06995800000000001</v>
+        <v>0.07212300000000001</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009644</v>
+        <v>0.009575</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (7).xlsx
+++ b/data_excel/接口测试用例_ (7).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:09:03', 'ftime': '2019-09-29 08:09:03', 'context': '到达【寺巷支局】', 'location': None}, {'time': '2019-09-29 07:54:49', 'ftime': '2019-09-29 07:54:49', 'context': '离开【泰州网路运营中心】,下一站【寺巷支局】', 'location': None}, {'time': '2019-09-29 04:24:41', 'ftime': '2019-09-29 04:24:41', 'context': '到达【泰州网路运营中心】', 'location': None}, {'time': '2019-09-28 23:00:33', 'ftime': '2019-09-28 23:00:33', 'context': '离开【邮政徐州市邮件处理分局】,下一站【泰州网路运营中心】（经转）', 'location': None}, {'time': '2019-09-27 21:45:25', 'ftime': '2019-09-27 21:45:25', 'context': '到达【邮政商丘市邮件】', 'location': None}, {'time': '2019-09-27 20:42:54', 'ftime': '2019-09-27 20:42:54', 'context': '离开【商丘市郊区大宗揽收营业部】,下一站【商丘中心】', 'location': None}, {'time': '2019-09-27 13:28:59', 'ftime': '2019-09-27 13:28:59', 'context': '【商丘市郊区大宗揽收营业部】已收件,揽投员:李德清,电话:13937050013', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.071261</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 15:49:55', 'ftime': '2019-10-08 15:49:55', 'context': '客户签收人: 代签 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：17862276911，投诉电话：0539-3230118', 'location': ''}, {'time': '2019-10-08 09:31:44', 'ftime': '2019-10-08 09:31:44', 'context': '【山东省临沂市沂南市公司】 派件中 派件人: 齐玉民 电话 17862276911 如有疑问，请联系：0539-3230118', 'location': ''}, {'time': '2019-10-08 08:54:54', 'ftime': '2019-10-08 08:54:54', 'context': '【山东省临沂市沂南市公司】 已收入', 'location': ''}, {'time': '2019-10-08 01:46:14', 'ftime': '2019-10-08 01:46:14', 'context': '【临沂转运中心】 已发出 下一站 【山东省临沂市沂南市】', 'location': ''}, {'time': '2019-10-06 09:16:21', 'ftime': '2019-10-06 09:16:21', 'context': '【临沂转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-05 00:10:44', 'ftime': '2019-10-05 00:10:44', 'context': '【虎门转运中心】 已发出 下一站 【临沂转运中心】', 'location': ''}, {'time': '2019-10-05 00:06:34', 'ftime': '2019-10-05 00:06:34', 'context': '【虎门转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-04 22:41:42', 'ftime': '2019-10-04 22:41:42', 'context': '【广东省东莞市建包中心】 已发出 下一站 【虎门转运中心】', 'location': ''}, {'time': '2019-10-04 22:38:39', 'ftime': '2019-10-04 22:38:39', 'context': '【广东省东莞市建包中心公司】 已打包', 'location': ''}, {'time': '2019-10-04 21:32:24', 'ftime': '2019-10-04 21:32:24', 'context': '【广东省东莞市建包中心公司】 已收入', 'location': ''}, {'time': '2019-10-04 01:25:22', 'ftime': '2019-10-04 01:25:22', 'context': '【东莞市市场部公司】 已收件 取件人: 东莞市市场部23 (95554)', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.073502</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 12:31:38', 'ftime': '2019-09-29 12:31:38', 'context': '【成都市】 快件已在 【成都新都】 签收, 签收人: 本人, 如有疑问请电联:19940875851 / 028-62510551, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-29 04:56:49', 'ftime': '2019-09-29 04:56:49', 'context': '【成都市】 【成都新都】 的龙桥二部（17748085573） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 04:56:31', 'ftime': '2019-09-29 04:56:31', 'context': '【成都市】 快件已经到达 【成都新都】', 'location': ''}, {'time': '2019-09-29 01:17:30', 'ftime': '2019-09-29 01:17:30', 'context': '【成都市】 快件离开 【成都中转】 已发往 【成都新都】', 'location': ''}, {'time': '2019-09-29 00:34:56', 'ftime': '2019-09-29 00:34:56', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': ''}, {'time': '2019-09-27 23:05:37', 'ftime': '2019-09-27 23:05:37', 'context': '【长沙市】 快件离开 【长沙中转部】 已发往 【成都中转】', 'location': ''}, {'time': '2019-09-27 23:05:04', 'ftime': '2019-09-27 23:05:04', 'context': '【长沙市】 快件已经到达 【长沙中转部】', 'location': ''}, {'time': '2019-09-27 21:11:10', 'ftime': '2019-09-27 21:11:10', 'context': '【长沙市】 快件离开 【长沙雀园分部】 已发往 【长沙中转部】', 'location': ''}, {'time': '2019-09-27 21:10:17', 'ftime': '2019-09-27 21:10:17', 'context': '【长沙市】 【长沙雀园分部】（0731-88507359、17773173623） 的 和平分部（17773123668） 已揽收', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.079139</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:30:25', 'ftime': '2019-10-08 06:30:25', 'context': '【虎门转运中心】 已发出 下一站 【盘锦转运中心】', 'location': None}, {'time': '2019-10-08 06:27:38', 'ftime': '2019-10-08 06:27:38', 'context': '【虎门转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 03:06:20', 'ftime': '2019-10-08 03:06:20', 'context': '【广州转运中心】 已发出 下一站 【虎门转运中心】', 'location': None}, {'time': '2019-10-08 03:00:31', 'ftime': '2019-10-08 03:00:31', 'context': '【广州转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 01:13:55', 'ftime': '2019-10-08 01:13:55', 'context': '【广东省广州市荔湾区光复路】 已发出 下一站 【广州转运中心】', 'location': None}, {'time': '2019-10-08 00:21:34', 'ftime': '2019-10-08 00:21:34', 'context': '【广东省广州市荔湾区光复路公司】 已打包', 'location': None}, {'time': '2019-10-07 23:25:01', 'ftime': '2019-10-07 23:25:01', 'context': '【广东省广州市荔湾区光复路公司】 已收件 取件人: 廖燕玲 (13428893464)', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.07190299999999999</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.009311</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:13:00', 'ftime': '2019-07-30 16:13:00', 'context': '已签收，签收人类型：门卫', 'location': None}, {'time': '2019-07-30 16:13:00', 'ftime': '2019-07-30 16:13:00', 'context': '派送中，派件员：谢山川，电话：18145032567', 'location': None}, {'time': '2019-07-30 16:11:00', 'ftime': '2019-07-30 16:11:00', 'context': '提前通知。快递员：722973+谢山川，已提前通知收货人', 'location': None}, {'time': '2019-07-30 16:09:00', 'ftime': '2019-07-30 16:09:00', 'context': '提前通知。快递员：722973+谢山川，已提前通知收货人', 'location': None}, {'time': '2019-07-30 13:39:00', 'ftime': '2019-07-30 13:39:00', 'context': '预派送，派件员：谢山川，电话：18145032567', 'location': None}, {'time': '2019-07-30 12:47:00', 'ftime': '2019-07-30 12:47:00', 'context': '货物已到达东莞清溪镇聚富路快递分部', 'location': None}, {'time': '2019-07-30 11:30:00', 'ftime': '2019-07-30 11:30:00', 'context': '运输中，离开【东莞转运场】，下一站【东莞清溪镇聚富路快递分部】', 'location': None}, {'time': '2019-07-30 08:05:00', 'ftime': '2019-07-30 08:05:00', 'context': '货物已到达东莞转运场', 'location': None}, {'time': '2019-07-29 05:19:00', 'ftime': '2019-07-29 05:19:00', 'context': '运输中，离开【成都转运场】，下一站【东莞转运场】', 'location': None}, {'time': '2019-07-28 20:22:00', 'ftime': '2019-07-28 20:22:00', 'context': '货物已到达成都转运场', 'location': None}, {'time': '2019-07-28 18:40:00', 'ftime': '2019-07-28 18:40:00', 'context': '运输中，离开【宜宾江北区振兴大道营业部】，下一站【成都转运场】', 'location': None}, {'time': '2019-07-28 16:42:00', 'ftime': '2019-07-28 16:42:00', 'context': '您的订单已被收件员揽收,【宜宾江北区振兴大道营业部】库存中', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.07470499999999999</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 01:49:14', 'ftime': '2019-10-08 01:49:14', 'context': '【南昌转运中心】 已发出 下一站 【北京转运中心】', 'location': None}, {'time': '2019-10-08 01:47:14', 'ftime': '2019-10-08 01:47:14', 'context': '【南昌转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 17:29:26', 'ftime': '2019-10-07 17:29:26', 'context': '【江西省吉安市】 已发出 下一站 【南昌转运中心】', 'location': None}, {'time': '2019-10-07 17:19:57', 'ftime': '2019-10-07 17:19:57', 'context': '【江西省吉安市公司】 已打包', 'location': None}, {'time': '2019-10-07 16:44:06', 'ftime': '2019-10-07 16:44:06', 'context': '【江西省吉安市公司】 已收件 取件人: 龙艳淋 (18179616613)', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.07331500000000001</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.009698</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 16:10:57', 'context': '查无结果', 'ftime': '2019-09-05 16:10:57'}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.06256399999999999</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-08 16:34:49', 'context': '查无结果', 'ftime': '2019-10-08 16:34:49'}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.067249</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.009660999999999999</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 16:10:57', 'context': '查无结果', 'ftime': '2019-09-23 16:10:57'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.06567199999999999</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-15 12:17:28', 'ftime': '2019-09-15 12:17:28', 'context': '[浙江桐乡市公司城盛小区分部]快件已被 代签收如有问题请联系敖兴晨【17858819912】。', 'location': '浙江桐乡市公司城盛小区分部'}, {'time': '2019-09-15 09:04:40', 'ftime': '2019-09-15 09:04:40', 'context': '[浙江桐乡市公司城盛小区分部]进行派件扫描；派送业务员：敖兴晨；联系电话：17858819912', 'location': '浙江桐乡市公司城盛小区分部'}, {'time': '2019-09-15 07:50:06', 'ftime': '2019-09-15 07:50:06', 'context': '[浙江桐乡市公司]进行快件扫描，发往：浙江桐乡市公司城盛小区分部', 'location': '浙江桐乡市公司'}, {'time': '2019-09-15 05:30:29', 'ftime': '2019-09-15 05:30:29', 'context': '[浙江嘉兴分拨中心]从站点发出，本次转运目的地：浙江桐乡市公司', 'location': '浙江嘉兴分拨中心'}, {'time': '2019-09-15 05:23:27', 'ftime': '2019-09-15 05:23:27', 'context': '[浙江嘉兴分拨中心]在分拨中心进行卸车扫描', 'location': '浙江嘉兴分拨中心'}, {'time': '2019-09-14 22:53:21', 'ftime': '2019-09-14 22:53:21', 'context': '[浙江温州分拨中心]进行装车扫描，发往：浙江嘉兴分拨中心', 'location': '浙江温州分拨中心'}, {'time': '2019-09-14 22:48:39', 'ftime': '2019-09-14 22:48:39', 'context': '[浙江温州分拨中心]在分拨中心进行称重扫描', 'location': '浙江温州分拨中心'}, {'time': '2019-09-14 20:41:16', 'ftime': '2019-09-14 20:41:16', 'context': '[浙江苍南县公司]进行下级地点扫描，发往：浙江嘉兴分拨中心', 'location': '浙江苍南县公司'}, {'time': '2019-09-14 20:38:43', 'ftime': '2019-09-14 20:38:43', 'context': '[浙江苍南县公司]进行揽件扫描', 'location': '浙江苍南县公司'}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.070462</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.00927</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 10:21:16', 'ftime': '2019-09-29 10:21:16', 'context': '湖北省市场部六十部-客户爱唯宝-已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.07301000000000001</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-06 16:34:49', 'context': '查无结果', 'ftime': '2019-10-06 16:34:49'}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.06898899999999999</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.011815</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-29 16:26:54', 'ftime': '2019-07-29 16:26:54', 'context': '已签收，签收人类型：本人', 'location': None}, {'time': '2019-07-29 16:26:26', 'ftime': '2019-07-29 16:26:26', 'context': '提前通知。快递员：788005+彭金意，已提前通知收货人', 'location': None}, {'time': '2019-07-29 16:24:23', 'ftime': '2019-07-29 16:24:23', 'context': '提前通知。快递员：788005+彭金意，已提前通知收货人', 'location': None}, {'time': '2019-07-29 16:08:58', 'ftime': '2019-07-29 16:08:58', 'context': '派送中', 'location': None}, {'time': '2019-07-29 10:53:12', 'ftime': '2019-07-29 10:53:12', 'context': '预派送', 'location': None}, {'time': '2019-07-29 10:24:21', 'ftime': '2019-07-29 10:24:21', 'context': '预派送', 'location': None}, {'time': '2019-07-29 09:31:00', 'ftime': '2019-07-29 09:31:00', 'context': '货物已到达娄底娄星区新星北路快递分部', 'location': None}, {'time': '2019-07-29 06:45:41', 'ftime': '2019-07-29 06:45:41', 'context': '运输中，离开【长沙转运中心】，下一站【娄底娄星区新星北路快递分部】', 'location': None}, {'time': '2019-07-28 18:27:00', 'ftime': '2019-07-28 18:27:00', 'context': '货物已到达长沙转运中心', 'location': None}, {'time': '2019-07-28 07:52:23', 'ftime': '2019-07-28 07:52:23', 'context': '运输中，离开【顺德枢纽中心】，下一站【长沙转运中心】', 'location': None}, {'time': '2019-07-27 21:27:46', 'ftime': '2019-07-27 21:27:46', 'context': '您的订单已被收件员揽收，【中山沙溪镇快递分部,电话：17666377985】库存中', 'location': None}, {'time': '2019-07-27 21:27:46', 'ftime': '2019-07-27 21:27:46', 'context': '您的订单已被收件员揽收,【中山沙溪镇快递分部】库存中', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.070631</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 15:46:58', 'ftime': '2019-10-08 15:46:58', 'context': '【河南省开封市通许县公司】 已收件 取件人: 王超 (15736872957)', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.072021</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.009808000000000001</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 15:34:11', 'ftime': '2019-09-29 15:34:11', 'context': '[湖州市织里揽投部]在 湖州市 已签收,他人代收,投递员:胡昆飞,电话:13505821228', 'location': '湖州市织里揽投部'}, {'time': '2019-09-29 13:58:26', 'ftime': '2019-09-29 13:58:26', 'context': '【湖州市织里揽投部】安排投递,投递员:胡昆飞,电话:13505821228', 'location': '湖州市织里揽投部'}, {'time': '2019-09-29 13:32:05', 'ftime': '2019-09-29 13:32:05', 'context': '到达【湖州市织里揽投部】', 'location': '湖州市织里揽投部'}, {'time': '2019-09-29 11:58:19', 'ftime': '2019-09-29 11:58:19', 'context': '离开【邮政湖州市邮件】,下一站【湖州市织里揽投部】', 'location': '邮政湖州市邮件'}, {'time': '2019-09-29 09:23:20', 'ftime': '2019-09-29 09:23:20', 'context': '到达【邮政湖州市邮件】', 'location': '邮政湖州市邮件'}, {'time': '2019-09-29 06:51:16', 'ftime': '2019-09-29 06:51:16', 'context': '离开【南航集散】,下一站【邮政湖州市邮件】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 02:18:46', 'ftime': '2019-09-29 02:18:46', 'context': '到达【南航集散】（经转）', 'location': '南航集散'}, {'time': '2019-09-29 00:21:21', 'ftime': '2019-09-29 00:21:21', 'context': '离开【广东航空邮件处理中心】,下一站【南航集散】（经转）', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-28 02:59:02', 'ftime': '2019-09-28 02:59:02', 'context': '到达【广东航空邮件处理中心】（经转）', 'location': '广东航空邮件处理中心'}, {'time': '2019-09-27 23:57:02', 'ftime': '2019-09-27 23:57:02', 'context': '离开【珠海市邮件处理中心】,下一站【广东航空邮件处理中心】', 'location': '珠海市邮件处理中心'}, {'time': '2019-09-27 22:49:39', 'ftime': '2019-09-27 22:49:39', 'context': '到达【珠海市邮件处理中心】', 'location': '珠海市邮件处理中心'}, {'time': '2019-09-27 22:31:34', 'ftime': '2019-09-27 22:31:34', 'context': '离开【珠海市福溪揽投部】,下一站【珠海速处】', 'location': '珠海市福溪揽投部'}, {'time': '2019-09-27 22:18:50', 'ftime': '2019-09-27 22:18:50', 'context': '珠海市 【珠海市福溪揽投部】已收件,揽投员:方小兰,电话:18675629593', 'location': '珠海市福溪揽投部'}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.072676</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 11:56:27', 'ftime': '2019-09-29 11:56:27', 'context': '已签收,签收人是【】签收图片', 'location': ''}, {'time': '2019-09-29 09:08:20', 'ftime': '2019-09-29 09:08:20', 'context': '【江门1】的【樊一君】正在派件,扫描员是【樊一君】', 'location': ''}, {'time': '2019-09-29 08:23:42', 'ftime': '2019-09-29 08:23:42', 'context': '快件到达【江门1】上一站是【江门1】,扫描员是【陈杨斌 】', 'location': ''}, {'time': '2019-09-28 18:04:17', 'ftime': '2019-09-28 18:04:17', 'context': '【市桥】的【梁乐】已收件,扫描员是【梁乐】', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.072517</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.009198</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-29 10:28:34', 'ftime': '2019-09-29 10:28:34', 'context': 'Пратката не подлежи на проследяване, Проследява се само препоръчана пратка.', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.07212300000000001</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 09:45:53', 'ftime': '2019-10-08 09:45:53', 'context': '[湖北武汉黄陂区公司武湖分部]进行派件扫描；派送业务员：李小军；联系电话：18971643175', 'location': '湖北武汉黄陂区公司武湖分部'}, {'time': '2019-10-08 06:27:23', 'ftime': '2019-10-08 06:27:23', 'context': '[湖北武汉黄陂区公司]进行快件扫描，发往：湖北武汉黄陂区公司武湖分部', 'location': '湖北武汉黄陂区公司'}, {'time': '2019-10-08 04:54:57', 'ftime': '2019-10-08 04:54:57', 'context': '[湖北武汉黄陂区公司]到达目的地网点，快件很快进行派送', 'location': '湖北武汉黄陂区公司'}, {'time': '2019-10-07 07:49:10', 'ftime': '2019-10-07 07:49:10', 'context': '[湖北武汉黄陂区公司]进行揽件扫描', 'location': '湖北武汉黄陂区公司'}, {'time': '2019-10-06 20:25:49', 'ftime': '2019-10-06 20:25:49', 'context': '[湖北武汉黄陂区公司罗汉分部]进行揽件扫描', 'location': '湖北武汉黄陂区公司罗汉分部'}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.070559</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.009575</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (7).xlsx
+++ b/data_excel/接口测试用例_ (7).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 15:49:55', 'ftime': '2019-10-08 15:49:55', 'context': '客户签收人: 代签 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：17862276911，投诉电话：0539-3230118', 'location': ''}, {'time': '2019-10-08 09:31:44', 'ftime': '2019-10-08 09:31:44', 'context': '【山东省临沂市沂南市公司】 派件中 派件人: 齐玉民 电话 17862276911 如有疑问，请联系：0539-3230118', 'location': ''}, {'time': '2019-10-08 08:54:54', 'ftime': '2019-10-08 08:54:54', 'context': '【山东省临沂市沂南市公司】 已收入', 'location': ''}, {'time': '2019-10-08 01:46:14', 'ftime': '2019-10-08 01:46:14', 'context': '【临沂转运中心】 已发出 下一站 【山东省临沂市沂南市】', 'location': ''}, {'time': '2019-10-06 09:16:21', 'ftime': '2019-10-06 09:16:21', 'context': '【临沂转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-05 00:10:44', 'ftime': '2019-10-05 00:10:44', 'context': '【虎门转运中心】 已发出 下一站 【临沂转运中心】', 'location': ''}, {'time': '2019-10-05 00:06:34', 'ftime': '2019-10-05 00:06:34', 'context': '【虎门转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-04 22:41:42', 'ftime': '2019-10-04 22:41:42', 'context': '【广东省东莞市建包中心】 已发出 下一站 【虎门转运中心】', 'location': ''}, {'time': '2019-10-04 22:38:39', 'ftime': '2019-10-04 22:38:39', 'context': '【广东省东莞市建包中心公司】 已打包', 'location': ''}, {'time': '2019-10-04 21:32:24', 'ftime': '2019-10-04 21:32:24', 'context': '【广东省东莞市建包中心公司】 已收入', 'location': ''}, {'time': '2019-10-04 01:25:22', 'ftime': '2019-10-04 01:25:22', 'context': '【东莞市市场部公司】 已收件 取件人: 东莞市市场部23 (95554)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 14:11:11', 'ftime': '2019-10-08 14:11:11', 'context': '到达【合肥市环城北路揽投部】', 'location': '合肥市环城北路揽投部'}, {'time': '2019-10-08 14:10:25', 'ftime': '2019-10-08 14:10:25', 'context': '【合肥市环城北路揽投部】安排投递,投递员:单彪,电话:18056061186', 'location': '合肥市环城北路揽投部'}, {'time': '2019-10-08 13:33:39', 'ftime': '2019-10-08 13:33:39', 'context': '离开【合肥中心】,下一站【合肥市环城北路揽投部】', 'location': '合肥中心'}, {'time': '2019-10-08 09:58:43', 'ftime': '2019-10-08 09:58:43', 'context': '到达【合肥中心】', 'location': '合肥中心'}, {'time': '2019-10-08 02:55:18', 'ftime': '2019-10-08 02:55:18', 'context': '离开【上海市中春路处理中心】,下一站【合肥中心】（经转）', 'location': '上海市中春路处理中心'}, {'time': '2019-10-07 16:29:36', 'ftime': '2019-10-07 16:29:36', 'context': '到达【邮政青浦区邮件转运站】（经转）', 'location': '邮政青浦区邮件转运站'}, {'time': '2019-10-07 16:02:48', 'ftime': '2019-10-07 16:02:48', 'context': '离开【邮政上海市青浦区重固】,下一站【青浦转运】', 'location': '邮政上海市青浦区重固'}, {'time': '2019-10-07 09:28:48', 'ftime': '2019-10-07 09:28:48', 'context': '上海市 【重固邮政局】已收件', 'location': '重固邮政局'}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.073502</v>
+        <v>0.070434</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:30:25', 'ftime': '2019-10-08 06:30:25', 'context': '【虎门转运中心】 已发出 下一站 【盘锦转运中心】', 'location': None}, {'time': '2019-10-08 06:27:38', 'ftime': '2019-10-08 06:27:38', 'context': '【虎门转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 03:06:20', 'ftime': '2019-10-08 03:06:20', 'context': '【广州转运中心】 已发出 下一站 【虎门转运中心】', 'location': None}, {'time': '2019-10-08 03:00:31', 'ftime': '2019-10-08 03:00:31', 'context': '【广州转运中心公司】 已收入', 'location': None}, {'time': '2019-10-08 01:13:55', 'ftime': '2019-10-08 01:13:55', 'context': '【广东省广州市荔湾区光复路】 已发出 下一站 【广州转运中心】', 'location': None}, {'time': '2019-10-08 00:21:34', 'ftime': '2019-10-08 00:21:34', 'context': '【广东省广州市荔湾区光复路公司】 已打包', 'location': None}, {'time': '2019-10-07 23:25:01', 'ftime': '2019-10-07 23:25:01', 'context': '【广东省广州市荔湾区光复路公司】 已收件 取件人: 廖燕玲 (13428893464)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 16:54:53', 'context': '查无结果', 'ftime': '2019-09-28 16:54:53'}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.07190299999999999</v>
+        <v>0.063689</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 01:49:14', 'ftime': '2019-10-08 01:49:14', 'context': '【南昌转运中心】 已发出 下一站 【北京转运中心】', 'location': None}, {'time': '2019-10-08 01:47:14', 'ftime': '2019-10-08 01:47:14', 'context': '【南昌转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 17:29:26', 'ftime': '2019-10-07 17:29:26', 'context': '【江西省吉安市】 已发出 下一站 【南昌转运中心】', 'location': None}, {'time': '2019-10-07 17:19:57', 'ftime': '2019-10-07 17:19:57', 'context': '【江西省吉安市公司】 已打包', 'location': None}, {'time': '2019-10-07 16:44:06', 'ftime': '2019-10-07 16:44:06', 'context': '【江西省吉安市公司】 已收件 取件人: 龙艳淋 (18179616613)', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-05 14:56:46', 'ftime': '2019-10-05 14:56:46', 'context': '已签收,签收人是（代理点代签）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员魏庄超派无点件(13966052881,0552-8022992)，感谢使用申通快递，期待再次为您服务', 'location': None}, {'time': '2019-10-05 11:16:50', 'ftime': '2019-10-05 11:16:50', 'context': '安徽怀远公司-魏庄超派无点件(13966052881,0552-8022992)-派件中', 'location': None}, {'time': '2019-10-05 08:20:04', 'ftime': '2019-10-05 08:20:04', 'context': '已到达-安徽怀远公司', 'location': None}, {'time': '2019-10-05 06:27:00', 'ftime': '2019-10-05 06:27:00', 'context': '安徽蚌埠转运中心-已发往-安徽怀远公司', 'location': None}, {'time': '2019-10-05 06:27:00', 'ftime': '2019-10-05 06:27:00', 'context': '安徽蚌埠转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-05 06:14:11', 'ftime': '2019-10-05 06:14:11', 'context': '已到达-安徽蚌埠转运中心', 'location': None}, {'time': '2019-10-05 06:08:09', 'ftime': '2019-10-05 06:08:09', 'context': '已到达-安徽蚌埠转运中心', 'location': None}, {'time': '2019-10-04 19:52:59', 'ftime': '2019-10-04 19:52:59', 'context': '江苏无锡中转部-已发往-安徽蚌埠转运中心', 'location': None}, {'time': '2019-10-04 19:52:59', 'ftime': '2019-10-04 19:52:59', 'context': '江苏无锡中转部-已进行装车扫描', 'location': None}, {'time': '2019-10-04 19:46:27', 'ftime': '2019-10-04 19:46:27', 'context': '已到达-江苏无锡中转部', 'location': None}, {'time': '2019-10-04 19:46:27', 'ftime': '2019-10-04 19:46:27', 'context': '快件已在【江苏无锡中转部】进行卸车，扫描员【卸货口6】', 'location': None}, {'time': '2019-10-03 19:36:22', 'ftime': '2019-10-03 19:36:22', 'context': '山东平原集散中心-已发往-江苏江阴航空部', 'location': None}, {'time': '2019-10-03 19:36:22', 'ftime': '2019-10-03 19:36:22', 'context': '山东平原集散中心-已进行装车扫描', 'location': None}, {'time': '2019-10-03 19:20:14', 'ftime': '2019-10-03 19:20:14', 'context': '已到达-山东平原集散中心', 'location': None}, {'time': '2019-10-03 19:19:46', 'ftime': '2019-10-03 19:19:46', 'context': '已到达-山东平原集散中心', 'location': None}, {'time': '2019-10-03 15:27:39', 'ftime': '2019-10-03 15:27:39', 'context': '山东德州市场部-孙金凯(18954503945,0534-8771330)-已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.07331500000000001</v>
+        <v>0.078107</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-08 16:34:49', 'context': '查无结果', 'ftime': '2019-10-08 16:34:49'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 14:55:26', 'ftime': '2019-10-08 14:55:26', 'context': '【资阳市】 【资阳】 的3部陈柔（18882505241） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-08 14:11:59', 'ftime': '2019-10-08 14:11:59', 'context': '【资阳市】 快件已经到达 【资阳】', 'location': ''}, {'time': '2019-10-08 09:05:28', 'ftime': '2019-10-08 09:05:28', 'context': '【成都市】 快件离开 【成都中转】 已发往 【资阳】', 'location': ''}, {'time': '2019-10-08 08:04:25', 'ftime': '2019-10-08 08:04:25', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': ''}, {'time': '2019-10-07 03:44:51', 'ftime': '2019-10-07 03:44:51', 'context': '【广州市】 快件离开 【广州中心】 已发往 【成都中转】', 'location': ''}, {'time': '2019-10-07 03:42:20', 'ftime': '2019-10-07 03:42:20', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-10-07 02:24:48', 'ftime': '2019-10-07 02:24:48', 'context': '【广州市】 快件离开 【荔湾和平】 已发往 【成都中转】', 'location': ''}, {'time': '2019-10-07 02:07:32', 'ftime': '2019-10-07 02:07:32', 'context': '【广州市】 【荔湾和平】（020-37414540） 的 谷裕刘生（13564973045） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.067249</v>
+        <v>0.07294100000000001</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-15 12:17:28', 'ftime': '2019-09-15 12:17:28', 'context': '[浙江桐乡市公司城盛小区分部]快件已被 代签收如有问题请联系敖兴晨【17858819912】。', 'location': '浙江桐乡市公司城盛小区分部'}, {'time': '2019-09-15 09:04:40', 'ftime': '2019-09-15 09:04:40', 'context': '[浙江桐乡市公司城盛小区分部]进行派件扫描；派送业务员：敖兴晨；联系电话：17858819912', 'location': '浙江桐乡市公司城盛小区分部'}, {'time': '2019-09-15 07:50:06', 'ftime': '2019-09-15 07:50:06', 'context': '[浙江桐乡市公司]进行快件扫描，发往：浙江桐乡市公司城盛小区分部', 'location': '浙江桐乡市公司'}, {'time': '2019-09-15 05:30:29', 'ftime': '2019-09-15 05:30:29', 'context': '[浙江嘉兴分拨中心]从站点发出，本次转运目的地：浙江桐乡市公司', 'location': '浙江嘉兴分拨中心'}, {'time': '2019-09-15 05:23:27', 'ftime': '2019-09-15 05:23:27', 'context': '[浙江嘉兴分拨中心]在分拨中心进行卸车扫描', 'location': '浙江嘉兴分拨中心'}, {'time': '2019-09-14 22:53:21', 'ftime': '2019-09-14 22:53:21', 'context': '[浙江温州分拨中心]进行装车扫描，发往：浙江嘉兴分拨中心', 'location': '浙江温州分拨中心'}, {'time': '2019-09-14 22:48:39', 'ftime': '2019-09-14 22:48:39', 'context': '[浙江温州分拨中心]在分拨中心进行称重扫描', 'location': '浙江温州分拨中心'}, {'time': '2019-09-14 20:41:16', 'ftime': '2019-09-14 20:41:16', 'context': '[浙江苍南县公司]进行下级地点扫描，发往：浙江嘉兴分拨中心', 'location': '浙江苍南县公司'}, {'time': '2019-09-14 20:38:43', 'ftime': '2019-09-14 20:38:43', 'context': '[浙江苍南县公司]进行揽件扫描', 'location': '浙江苍南县公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-02 12:22:14', 'ftime': '2019-10-02 12:22:14', 'context': '[寄递新安江投递部]在 杭州市 已签收,他人代收：翁鹏,投递员:施增塘,电话:19906755975', 'location': '寄递新安江投递部'}, {'time': '2019-10-02 08:30:16', 'ftime': '2019-10-02 08:30:16', 'context': '【寄递新安江投递部】安排投递,投递员:施增塘,电话:19906755975', 'location': '寄递新安江投递部'}, {'time': '2019-10-01 12:54:39', 'ftime': '2019-10-01 12:54:39', 'context': '杭州市 【寄递新安江投递部】投递结果反馈-未妥投,备注(未联系上收件人,安排再投),投递员:施增塘,电话:19906755975', 'location': '寄递新安江投递部'}, {'time': '2019-10-01 11:11:50', 'ftime': '2019-10-01 11:11:50', 'context': '【寄递新安江投递部】安排投递,投递员:施增塘,电话:19906755975', 'location': '寄递新安江投递部'}, {'time': '2019-09-30 12:05:15', 'ftime': '2019-09-30 12:05:15', 'context': '杭州市 【寄递新安江投递部】投递结果反馈-未妥投,备注(未联系上收件人,安排再投),投递员:施增塘,电话:19906755975', 'location': '寄递新安江投递部'}, {'time': '2019-09-30 12:05:14', 'ftime': '2019-09-30 12:05:14', 'context': '杭州市 【寄递新安江投递部】投递结果反馈-未妥投,备注(未联系上收件人,安排再投),投递员:施增塘,电话:19906755975', 'location': '寄递新安江投递部'}, {'time': '2019-09-30 09:23:13', 'ftime': '2019-09-30 09:23:13', 'context': '【寄递新安江投递部】安排投递,投递员:施增塘,电话:19906755975', 'location': '寄递新安江投递部'}, {'time': '2019-09-29 16:58:26', 'ftime': '2019-09-29 16:58:26', 'context': '杭州市 【建德市新安江揽投部】已收件,揽投员:徐高明,电话:18072715351', 'location': '建德市新安江揽投部'}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.070462</v>
+        <v>0.077824</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-06 16:34:49', 'context': '查无结果', 'ftime': '2019-10-06 16:34:49'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 10:00:26', 'ftime': '2019-10-08 10:00:26', 'context': '[河北肥乡县公司]进行派件扫描；派送业务员：庞素霞；联系电话：18832099015', 'location': '河北肥乡县公司'}, {'time': '2019-10-08 02:24:27', 'ftime': '2019-10-08 02:24:27', 'context': '[河北石家庄分拨中心]从站点发出，本次转运目的地：河北肥乡县公司', 'location': '河北石家庄分拨中心'}, {'time': '2019-10-08 02:02:30', 'ftime': '2019-10-08 02:02:30', 'context': '[河北石家庄分拨中心]在分拨中心进行卸车扫描', 'location': '河北石家庄分拨中心'}, {'time': '2019-10-06 20:21:58', 'ftime': '2019-10-06 20:21:58', 'context': '[浙江温州分拨中心]进行装车扫描，发往：河北石家庄分拨中心', 'location': '浙江温州分拨中心'}, {'time': '2019-10-06 20:19:28', 'ftime': '2019-10-06 20:19:28', 'context': '[浙江温州分拨中心]在分拨中心进行称重扫描', 'location': '浙江温州分拨中心'}, {'time': '2019-10-06 17:59:39', 'ftime': '2019-10-06 17:59:39', 'context': '[浙江瑞安莘塍公司]进行下级地点扫描，发往：河北石家庄分拨中心', 'location': '浙江瑞安莘塍公司'}, {'time': '2019-10-05 19:01:26', 'ftime': '2019-10-05 19:01:26', 'context': '[浙江瑞安莘塍公司]进行揽件扫描', 'location': '浙江瑞安莘塍公司'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.06898899999999999</v>
+        <v>0.07240099999999999</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-10-08 15:46:58', 'ftime': '2019-10-08 15:46:58', 'context': '【河南省开封市通许县公司】 已收件 取件人: 王超 (15736872957)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 07:23:07', 'ftime': '2019-10-08 07:23:07', 'context': '[浙江杭州分拨中心]从站点发出，本次转运目的地：浙江杭州江干区九堡一公司', 'location': '浙江杭州分拨中心'}, {'time': '2019-10-08 07:06:47', 'ftime': '2019-10-08 07:06:47', 'context': '[浙江杭州分拨中心]在分拨中心进行称重扫描', 'location': '浙江杭州分拨中心'}, {'time': '2019-10-07 23:28:05', 'ftime': '2019-10-07 23:28:05', 'context': '[安徽合肥分拨中心]进行装车扫描，发往：浙江杭州分拨中心', 'location': '安徽合肥分拨中心'}, {'time': '2019-10-07 22:05:44', 'ftime': '2019-10-07 22:05:44', 'context': '[安徽合肥分拨中心]进行中转集包扫描，发往：浙江杭州网点包', 'location': '安徽合肥分拨中心'}, {'time': '2019-10-07 20:19:29', 'ftime': '2019-10-07 20:19:29', 'context': '[安徽合肥分拨中心]在分拨中心进行称重扫描', 'location': '安徽合肥分拨中心'}, {'time': '2019-10-07 15:22:30', 'ftime': '2019-10-07 15:22:30', 'context': '[安徽亳州公司]进行下级地点扫描，发往：安徽合肥分拨中心', 'location': '安徽亳州公司'}, {'time': '2019-10-07 15:12:27', 'ftime': '2019-10-07 15:12:27', 'context': '[安徽亳州公司]进行揽件扫描', 'location': '安徽亳州公司'}, {'time': '2019-10-07 12:22:47', 'ftime': '2019-10-07 12:22:47', 'context': '[安徽亳州公司西马园分部]进行揽件扫描', 'location': '安徽亳州公司西马园分部'}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.072021</v>
+        <v>0.074228</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 11:56:27', 'ftime': '2019-09-29 11:56:27', 'context': '已签收,签收人是【】签收图片', 'location': ''}, {'time': '2019-09-29 09:08:20', 'ftime': '2019-09-29 09:08:20', 'context': '【江门1】的【樊一君】正在派件,扫描员是【樊一君】', 'location': ''}, {'time': '2019-09-29 08:23:42', 'ftime': '2019-09-29 08:23:42', 'context': '快件到达【江门1】上一站是【江门1】,扫描员是【陈杨斌 】', 'location': ''}, {'time': '2019-09-28 18:04:17', 'ftime': '2019-09-28 18:04:17', 'context': '【市桥】的【梁乐】已收件,扫描员是【梁乐】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-08 16:54:54', 'context': '查无结果', 'ftime': '2019-10-08 16:54:54'}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.072517</v>
+        <v>0.07127600000000001</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 09:45:53', 'ftime': '2019-10-08 09:45:53', 'context': '[湖北武汉黄陂区公司武湖分部]进行派件扫描；派送业务员：李小军；联系电话：18971643175', 'location': '湖北武汉黄陂区公司武湖分部'}, {'time': '2019-10-08 06:27:23', 'ftime': '2019-10-08 06:27:23', 'context': '[湖北武汉黄陂区公司]进行快件扫描，发往：湖北武汉黄陂区公司武湖分部', 'location': '湖北武汉黄陂区公司'}, {'time': '2019-10-08 04:54:57', 'ftime': '2019-10-08 04:54:57', 'context': '[湖北武汉黄陂区公司]到达目的地网点，快件很快进行派送', 'location': '湖北武汉黄陂区公司'}, {'time': '2019-10-07 07:49:10', 'ftime': '2019-10-07 07:49:10', 'context': '[湖北武汉黄陂区公司]进行揽件扫描', 'location': '湖北武汉黄陂区公司'}, {'time': '2019-10-06 20:25:49', 'ftime': '2019-10-06 20:25:49', 'context': '[湖北武汉黄陂区公司罗汉分部]进行揽件扫描', 'location': '湖北武汉黄陂区公司罗汉分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 09:25:00', 'ftime': '2019-10-08 09:25:00', 'context': '[SHANGHAI - CHINA MAINLAND]With delivery courier', 'location': 'SHANGHAI - CHINA MAINLAND'}, {'time': '2019-10-07 10:06:00', 'ftime': '2019-10-07 10:06:00', 'context': 'Arrived at Delivery Facility in SHANGHAI - CHINA MAINLAND', 'location': 'SHANGHAI - CHINA MAINLAND'}, {'time': '2019-10-06 09:51:00', 'ftime': '2019-10-06 09:51:00', 'context': 'Departed Facility in EAST CHINA AREA - CHINA MAINLAND', 'location': 'EAST CHINA AREA - CHINA MAINLAND'}, {'time': '2019-10-06 04:59:00', 'ftime': '2019-10-06 04:59:00', 'context': 'Processed at EAST CHINA AREA - CHINA MAINLAND', 'location': 'EAST CHINA AREA - CHINA MAINLAND'}, {'time': '2019-10-06 04:31:00', 'ftime': '2019-10-06 04:31:00', 'context': 'Clearance processing complete at EAST CHINA AREA - CHINA MAINLAND', 'location': 'EAST CHINA AREA - CHINA MAINLAND'}, {'time': '2019-10-06 03:35:00', 'ftime': '2019-10-06 03:35:00', 'context': 'Arrived at Sort Facility EAST CHINA AREA - CHINA MAINLAND', 'location': 'EAST CHINA AREA - CHINA MAINLAND'}, {'time': '2019-10-05 19:01:00', 'ftime': '2019-10-05 19:01:00', 'context': '[EAST CHINA AREA - CHINA MAINLAND]Customs status updated', 'location': 'EAST CHINA AREA - CHINA MAINLAND'}, {'time': '2019-10-05 08:11:00', 'ftime': '2019-10-05 08:11:00', 'context': 'Departed Facility in LEIPZIG - GERMANY', 'location': 'LEIPZIG - GERMANY'}, {'time': '2019-10-05 08:09:00', 'ftime': '2019-10-05 08:09:00', 'context': 'Transferred through LEIPZIG - GERMANY', 'location': 'LEIPZIG - GERMANY'}, {'time': '2019-10-04 12:18:00', 'ftime': '2019-10-04 12:18:00', 'context': '[LEIPZIG - GERMANY]Shipment on hold', 'location': 'LEIPZIG - GERMANY'}, {'time': '2019-10-03 10:18:00', 'ftime': '2019-10-03 10:18:00', 'context': '[LEIPZIG - GERMANY]Shipment on hold', 'location': 'LEIPZIG - GERMANY'}, {'time': '2019-10-03 03:28:00', 'ftime': '2019-10-03 03:28:00', 'context': 'Departed Facility in COLOGNE - GERMANY', 'location': 'COLOGNE - GERMANY'}, {'time': '2019-10-02 21:39:00', 'ftime': '2019-10-02 21:39:00', 'context': 'Processed at COLOGNE - GERMANY', 'location': 'COLOGNE - GERMANY'}, {'time': '2019-10-02 20:52:00', 'ftime': '2019-10-02 20:52:00', 'context': 'Arrived at Sort Facility COLOGNE - GERMANY', 'location': 'COLOGNE - GERMANY'}, {'time': '2019-10-02 19:42:00', 'ftime': '2019-10-02 19:42:00', 'context': 'Departed Facility in DUESSELDORF - GERMANY', 'location': 'DUESSELDORF - GERMANY'}, {'time': '2019-10-02 19:41:00', 'ftime': '2019-10-02 19:41:00', 'context': 'Processed at DUESSELDORF - GERMANY', 'location': 'DUESSELDORF - GERMANY'}, {'time': '2019-10-02 14:30:00', 'ftime': '2019-10-02 14:30:00', 'context': '[DUESSELDORF - GERMANY]Shipment picked up', 'location': 'DUESSELDORF - GERMANY'}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.070559</v>
+        <v>0.073381</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
